--- a/AccBase_Specification_KZ-RU.xlsx
+++ b/AccBase_Specification_KZ-RU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="281">
   <si>
     <t>Договор</t>
   </si>
@@ -129,9 +129,6 @@
     <t>CountryId</t>
   </si>
   <si>
-    <t>Мы на многое не отваживаемся не потому что оно трудно; оно трудно именно потому, что мы на него не отваживаемся. /Сенека Старший/</t>
-  </si>
-  <si>
     <t>DateStartWork</t>
   </si>
   <si>
@@ -229,9 +226,6 @@
   </si>
   <si>
     <t xml:space="preserve">  - производственная калькуляция в т.ч. План выполнения произ. Заказа с материалами и работами</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DjqzBBlxuM8</t>
   </si>
   <si>
     <t>Подробности 1</t>
@@ -916,7 +910,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -949,13 +943,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1177,13 +1164,13 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1219,14 +1206,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1236,7 +1220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1253,19 +1237,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1278,8 +1261,8 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1324,10 +1307,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1339,15 +1322,15 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1368,24 +1351,24 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1696,7 +1679,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -1707,7 +1690,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -1715,40 +1698,29 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
+      <c r="A4" s="26"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="104" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
-        <v>275</v>
+      <c r="A5" s="102" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1"/>
-    <hyperlink ref="A5" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -1764,7 +1736,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.140625" style="69" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" style="67" customWidth="1"/>
     <col min="2" max="2" width="42.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
     <col min="4" max="14" width="6.7109375" style="1" customWidth="1"/>
@@ -1772,17 +1744,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
-        <v>134</v>
+      <c r="A1" s="70" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="72" t="s">
-        <v>267</v>
+      <c r="A2" s="70" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="56" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -1790,7 +1762,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="57" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="14" t="s">
@@ -1798,7 +1770,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="58" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1806,63 +1778,63 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="59" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="62" t="s">
-        <v>45</v>
+      <c r="A7" s="60" t="s">
+        <v>44</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="62" t="s">
-        <v>90</v>
+      <c r="A8" s="60" t="s">
+        <v>88</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="48" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="83" t="s">
-        <v>210</v>
-      </c>
-      <c r="B10" s="83" t="s">
-        <v>209</v>
+      <c r="A10" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" s="81" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="62" t="s">
-        <v>31</v>
+      <c r="A11" s="60" t="s">
+        <v>30</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="50" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="62" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -1870,122 +1842,122 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="63" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="34"/>
-    </row>
-    <row r="15" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="66" t="s">
+      <c r="C14" s="32"/>
+    </row>
+    <row r="15" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="34"/>
-    </row>
-    <row r="16" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="66" t="s">
+      <c r="C15" s="32"/>
+    </row>
+    <row r="16" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-    </row>
-    <row r="17" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="52" t="s">
+      <c r="B16" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+    </row>
+    <row r="17" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="B17" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-    </row>
-    <row r="18" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="53" t="s">
+      <c r="C17" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+    </row>
+    <row r="18" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="B18" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="B18" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-    </row>
-    <row r="19" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="62" t="s">
+      <c r="C18" s="20"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+    </row>
+    <row r="19" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="32"/>
+    </row>
+    <row r="20" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B20" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="34"/>
-    </row>
-    <row r="20" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="34"/>
+      <c r="C20" s="32"/>
     </row>
     <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="82" t="s">
-        <v>206</v>
-      </c>
-      <c r="B21" s="82" t="s">
-        <v>205</v>
+      <c r="A21" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="B21" s="80" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="68"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="71"/>
-      <c r="B23" s="27"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="26"/>
     </row>
     <row r="24" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="78" t="s">
-        <v>271</v>
-      </c>
-      <c r="B24" s="90" t="s">
-        <v>216</v>
+      <c r="A24" s="76" t="s">
+        <v>269</v>
+      </c>
+      <c r="B24" s="88" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="88" t="s">
-        <v>195</v>
-      </c>
-      <c r="B25" s="89" t="s">
+      <c r="A25" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="B25" s="87" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="90" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="92" t="s">
-        <v>215</v>
-      </c>
-      <c r="B26" s="51"/>
+      <c r="B26" s="49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -2044,51 +2016,51 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="83" t="s">
-        <v>210</v>
-      </c>
-      <c r="B8" s="83" t="s">
-        <v>209</v>
+      <c r="A8" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" s="81" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
+      <c r="C10" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
@@ -2107,80 +2079,80 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="37" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="21"/>
+      <c r="B14" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="20"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="B15" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>230</v>
+      <c r="C15" s="20" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="B16" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>231</v>
+      <c r="C16" s="20" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
+        <v>47</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
+        <v>48</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="82" t="s">
-        <v>206</v>
-      </c>
-      <c r="B19" s="82" t="s">
-        <v>205</v>
+      <c r="A19" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="B19" s="80" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2214,15 +2186,15 @@
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -2238,55 +2210,55 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="70" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="70" t="s">
+      <c r="A8" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="68" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="83" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" s="83" t="s">
-        <v>209</v>
+      <c r="A9" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>40</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2306,67 +2278,67 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="21"/>
+      <c r="C14" s="20"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="21"/>
+      <c r="B15" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="20"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="B16" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>245</v>
+      <c r="C16" s="20" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>246</v>
+      <c r="C17" s="20" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="82" t="s">
-        <v>206</v>
-      </c>
-      <c r="B20" s="82" t="s">
-        <v>205</v>
+      <c r="A20" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" s="80" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2396,7 +2368,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -2404,15 +2376,15 @@
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -2428,23 +2400,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2456,27 +2428,27 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="83" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" s="83" t="s">
-        <v>209</v>
+      <c r="A9" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2486,8 +2458,8 @@
       <c r="B12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>254</v>
+      <c r="C12" s="20" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2497,56 +2469,56 @@
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>174</v>
+      <c r="C13" s="20" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="30" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="39" t="s">
-        <v>32</v>
+      <c r="B15" s="37" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="C16" s="20" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="B17" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="C18" s="21"/>
+      <c r="B18" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="C18" s="20"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
@@ -2555,8 +2527,8 @@
       <c r="B19" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>255</v>
+      <c r="C19" s="20" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -2564,18 +2536,18 @@
         <v>1</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="21"/>
+        <v>157</v>
+      </c>
+      <c r="C20" s="20"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="C21" s="21"/>
+        <v>263</v>
+      </c>
+      <c r="C21" s="20"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
@@ -2584,32 +2556,32 @@
       <c r="B22" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>256</v>
+      <c r="C22" s="20" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
-        <v>64</v>
+      <c r="A23" s="23" t="s">
+        <v>62</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="82" t="s">
-        <v>206</v>
-      </c>
-      <c r="B25" s="82" t="s">
-        <v>205</v>
+      <c r="A25" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="B25" s="80" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2640,13 +2612,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>188</v>
+      <c r="A1" s="20" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -2654,7 +2626,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -2662,7 +2634,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -2678,23 +2650,23 @@
         <v>4</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -2706,27 +2678,27 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="83" t="s">
-        <v>210</v>
-      </c>
-      <c r="B10" s="83" t="s">
-        <v>209</v>
+      <c r="A10" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" s="81" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="53" t="s">
         <v>40</v>
-      </c>
-      <c r="B12" s="55" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -2746,65 +2718,65 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="30" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="39" t="s">
-        <v>32</v>
+      <c r="B16" s="37" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="B17" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>233</v>
+      <c r="C17" s="20" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="B18" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="B18" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>234</v>
+      <c r="C18" s="20" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="82" t="s">
-        <v>206</v>
-      </c>
-      <c r="B21" s="82" t="s">
-        <v>205</v>
+      <c r="A21" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="B21" s="80" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -2812,73 +2784,73 @@
       <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="90" t="s">
-        <v>261</v>
-      </c>
-      <c r="B24" s="27"/>
+      <c r="A24" s="88" t="s">
+        <v>259</v>
+      </c>
+      <c r="B24" s="26"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="99" t="s">
+      <c r="A25" s="97" t="s">
+        <v>258</v>
+      </c>
+      <c r="B25" s="97" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="98" t="s">
+        <v>257</v>
+      </c>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="98">
+        <v>3</v>
+      </c>
+      <c r="B26" s="98" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" s="98" t="s">
+        <v>255</v>
+      </c>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="88" t="s">
         <v>260</v>
       </c>
-      <c r="B25" s="99" t="s">
-        <v>211</v>
-      </c>
-      <c r="C25" s="100" t="s">
-        <v>259</v>
-      </c>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="100">
-        <v>3</v>
-      </c>
-      <c r="B26" s="100" t="s">
-        <v>184</v>
-      </c>
-      <c r="C26" s="100" t="s">
+      <c r="B28" s="26"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="B29" s="97" t="s">
+        <v>209</v>
+      </c>
+      <c r="C29" s="98" t="s">
         <v>257</v>
       </c>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="90" t="s">
-        <v>262</v>
-      </c>
-      <c r="B28" s="27"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="96" t="s">
-        <v>260</v>
-      </c>
-      <c r="B29" s="99" t="s">
-        <v>211</v>
-      </c>
-      <c r="C29" s="100" t="s">
-        <v>259</v>
-      </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="97" t="s">
-        <v>251</v>
-      </c>
-      <c r="B30" s="100" t="s">
-        <v>224</v>
-      </c>
-      <c r="C30" s="100" t="s">
-        <v>225</v>
+      <c r="A30" s="95" t="s">
+        <v>249</v>
+      </c>
+      <c r="B30" s="98" t="s">
+        <v>222</v>
+      </c>
+      <c r="C30" s="98" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2933,23 +2905,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2960,38 +2932,38 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="83" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" s="83" t="s">
-        <v>209</v>
+      <c r="A9" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="21"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
@@ -3000,10 +2972,10 @@
       <c r="B12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="D12" s="21"/>
+      <c r="C12" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="20"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
@@ -3012,79 +2984,79 @@
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>187</v>
+      <c r="C13" s="20" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="30" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
+      <c r="B15" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="B16" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>237</v>
+      <c r="C16" s="20" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>238</v>
+      <c r="C17" s="20" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="21"/>
+        <v>47</v>
+      </c>
+      <c r="C18" s="20"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="21"/>
+        <v>48</v>
+      </c>
+      <c r="C19" s="20"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="82" t="s">
-        <v>206</v>
-      </c>
-      <c r="B20" s="82" t="s">
-        <v>205</v>
+      <c r="A20" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" s="80" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -3093,17 +3065,17 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3129,7 +3101,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="21"/>
+      <c r="A1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -3160,23 +3132,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3188,35 +3160,35 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="83" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" s="83" t="s">
-        <v>209</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+      <c r="A9" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="42"/>
+      <c r="C11" s="40"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
@@ -3243,51 +3215,51 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="39" t="s">
-        <v>32</v>
+      <c r="B15" s="37" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="B16" s="52" t="s">
-        <v>197</v>
-      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="53" t="s">
-        <v>194</v>
-      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
-        <v>64</v>
+      <c r="A18" s="23" t="s">
+        <v>62</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="82" t="s">
-        <v>206</v>
-      </c>
-      <c r="B20" s="82" t="s">
-        <v>205</v>
+      <c r="A20" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" s="80" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -3295,59 +3267,59 @@
       <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="76" t="s">
+        <v>217</v>
+      </c>
+      <c r="B23" s="88" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="91" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24" s="92" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="89" t="s">
+        <v>250</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="76"/>
+      <c r="B26" s="88"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="76" t="s">
         <v>219</v>
       </c>
-      <c r="B23" s="90" t="s">
+      <c r="B27" s="88" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="93" t="s">
-        <v>195</v>
-      </c>
-      <c r="B24" s="94" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="91" t="s">
-        <v>252</v>
-      </c>
-      <c r="B25" s="51" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="78"/>
-      <c r="B26" s="90"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="78" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="91" t="s">
+        <v>193</v>
+      </c>
+      <c r="B28" s="92" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="89" t="s">
+        <v>251</v>
+      </c>
+      <c r="B29" s="49" t="s">
         <v>221</v>
-      </c>
-      <c r="B27" s="90" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="93" t="s">
-        <v>195</v>
-      </c>
-      <c r="B28" s="94" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="91" t="s">
-        <v>253</v>
-      </c>
-      <c r="B29" s="51" t="s">
-        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -3373,8 +3345,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>70</v>
+      <c r="A1" s="20" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -3382,7 +3354,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -3390,7 +3362,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -3411,22 +3383,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="52" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -3434,27 +3406,27 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="83" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" s="83" t="s">
-        <v>209</v>
+      <c r="A9" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="53" t="s">
         <v>40</v>
-      </c>
-      <c r="B11" s="55" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3474,75 +3446,75 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="39" t="s">
-        <v>32</v>
+      <c r="B14" s="37" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="B15" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
+      <c r="C15" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="B16" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
+      <c r="C16" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
+        <v>47</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
+        <v>48</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="82" t="s">
-        <v>206</v>
-      </c>
-      <c r="B19" s="82" t="s">
-        <v>205</v>
+      <c r="A19" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="B19" s="80" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -3575,14 +3547,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="21"/>
+      <c r="A1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -3590,7 +3562,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -3606,27 +3578,27 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="52" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -3634,34 +3606,34 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="83" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" s="83" t="s">
-        <v>209</v>
+      <c r="A9" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
@@ -3670,8 +3642,8 @@
       <c r="B12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>94</v>
+      <c r="C12" s="20" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -3681,79 +3653,79 @@
       <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>93</v>
+      <c r="C13" s="20" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="B15" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+      <c r="C15" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="B16" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="C16" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>152</v>
+      <c r="A17" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="21"/>
+        <v>47</v>
+      </c>
+      <c r="C18" s="20"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="21"/>
+        <v>48</v>
+      </c>
+      <c r="C19" s="20"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="82" t="s">
-        <v>206</v>
-      </c>
-      <c r="B20" s="82" t="s">
-        <v>205</v>
+      <c r="A20" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" s="80" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -3794,7 +3766,7 @@
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>26</v>
@@ -3818,58 +3790,58 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="83" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" s="83" t="s">
-        <v>209</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>171</v>
+      <c r="A9" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="40"/>
+      <c r="C11" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="38"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
@@ -3878,7 +3850,7 @@
       <c r="B12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="20"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
@@ -3887,7 +3859,7 @@
       <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="20"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
@@ -3896,63 +3868,63 @@
       <c r="B14" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="21"/>
+      <c r="C14" s="20"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="21"/>
+      <c r="B15" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="20"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="B16" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>227</v>
+      <c r="C16" s="20" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>226</v>
+      <c r="C17" s="20" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="21"/>
+        <v>47</v>
+      </c>
+      <c r="C18" s="20"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="21"/>
+        <v>48</v>
+      </c>
+      <c r="C19" s="20"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="82" t="s">
-        <v>206</v>
-      </c>
-      <c r="B20" s="82" t="s">
-        <v>205</v>
+      <c r="A20" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" s="80" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -3960,28 +3932,28 @@
       <c r="B21" s="4"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="25" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="22"/>
+      <c r="C24" s="21"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="22"/>
+      <c r="C25" s="21"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="20"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="25" t="s">
         <v>54</v>
-      </c>
-      <c r="C26" s="21"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="26" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4013,15 +3985,15 @@
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -4037,55 +4009,55 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="48" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="83" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" s="83" t="s">
-        <v>209</v>
+      <c r="A9" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>40</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -4105,53 +4077,53 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="37" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="21"/>
+      <c r="B15" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="20"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="B16" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="D16" s="21"/>
+      <c r="D16" s="20"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="82" t="s">
-        <v>206</v>
-      </c>
-      <c r="B19" s="82" t="s">
-        <v>205</v>
+      <c r="A19" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="B19" s="80" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -4184,15 +4156,15 @@
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -4208,23 +4180,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -4236,27 +4208,27 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="83" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" s="83" t="s">
-        <v>209</v>
+      <c r="A9" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -4276,65 +4248,65 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="34" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="39" t="s">
-        <v>32</v>
+      <c r="B15" s="37" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="B16" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>240</v>
+      <c r="C16" s="20" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>241</v>
+      <c r="C17" s="20" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
-        <v>64</v>
+      <c r="A18" s="23" t="s">
+        <v>62</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="82" t="s">
-        <v>206</v>
-      </c>
-      <c r="B20" s="82" t="s">
-        <v>205</v>
+      <c r="A20" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" s="80" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -4373,15 +4345,15 @@
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -4397,57 +4369,57 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>89</v>
+      <c r="A7" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="83" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" s="83" t="s">
-        <v>209</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="A9" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>207</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>40</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -4475,60 +4447,60 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="39" t="s">
-        <v>32</v>
+      <c r="B15" s="37" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="B16" s="52" t="s">
-        <v>197</v>
-      </c>
       <c r="C16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="D17" s="21"/>
+      <c r="C17" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" s="20"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="21"/>
+        <v>47</v>
+      </c>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="21"/>
+        <v>48</v>
+      </c>
+      <c r="F19" s="20"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="82" t="s">
-        <v>206</v>
-      </c>
-      <c r="B20" s="82" t="s">
-        <v>205</v>
+      <c r="A20" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" s="80" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -4555,323 +4527,323 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="B6" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="20" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" s="21" t="s">
+      <c r="C8" s="20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C11" s="21" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>150</v>
-      </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14" s="57" t="s">
-        <v>128</v>
+      <c r="A14" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="55" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="55" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="55" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="55" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="55" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="55" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B29" s="55" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="57" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="57" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="B18" s="57" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="B19" s="57" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" s="57" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="57" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" s="57" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" s="57" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="B24" s="57" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="57" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" s="57" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="57" t="s">
+    <row r="30" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="B30" s="55" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="57" t="s">
+    <row r="31" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="B28" s="57" t="s">
+      <c r="B31" s="55" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" s="57" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="57" t="s">
+    <row r="32" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="57" t="s">
+      <c r="B32" s="55" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="57" t="s">
+    <row r="33" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="B31" s="57" t="s">
+      <c r="B33" s="55" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="57" t="s">
+    <row r="34" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B34" s="55" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="57" t="s">
+    <row r="35" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="57" t="s">
+      <c r="B35" s="55" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="57" t="s">
+    <row r="36" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="B34" s="57" t="s">
+      <c r="B36" s="55" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="57" t="s">
+    <row r="37" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="B35" s="57" t="s">
+      <c r="B37" s="55" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="57" t="s">
+    <row r="38" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="57" t="s">
+      <c r="B38" s="55" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="57" t="s">
+    <row r="39" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A39" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="57" t="s">
+      <c r="B39" s="55" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="57" t="s">
+    <row r="40" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="B38" s="57" t="s">
+      <c r="B40" s="55" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="57" t="s">
+    <row r="41" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="B39" s="57" t="s">
+      <c r="B41" s="55" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="57" t="s">
+    <row r="42" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="B40" s="57" t="s">
+      <c r="B42" s="55" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="57" t="s">
+    <row r="43" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="B41" s="57" t="s">
+      <c r="B43" s="55" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="57" t="s">
+    <row r="44" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="57" t="s">
+      <c r="B44" s="55" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="B43" s="57" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="57" t="s">
-        <v>124</v>
-      </c>
-      <c r="B44" s="57" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4890,10 +4862,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="84" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" style="84" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" style="84" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="84"/>
+    <col min="1" max="1" width="28.5703125" style="82" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" style="82" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" style="82" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="82"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
@@ -4901,15 +4873,15 @@
         <v>15</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -4925,62 +4897,62 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>89</v>
+      <c r="A7" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="85" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" s="85" t="s">
-        <v>209</v>
+      <c r="A9" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="49" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="84" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4993,43 +4965,43 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="87" t="s">
+      <c r="A14" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="85" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>32</v>
+      <c r="B15" s="27" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B17" s="27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>49</v>
-      </c>
-    </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="82" t="s">
-        <v>206</v>
-      </c>
-      <c r="B18" s="82" t="s">
-        <v>205</v>
+      <c r="A18" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" s="80" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -5049,7 +5021,7 @@
   </sheetPr>
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5059,8 +5031,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
-        <v>212</v>
+      <c r="A1" s="33" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -5068,15 +5040,15 @@
         <v>15</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -5088,28 +5060,28 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>167</v>
+      <c r="B5" s="27" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="29" t="s">
+      <c r="A6" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="B6" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="20"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -5119,207 +5091,207 @@
       <c r="B8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="21"/>
+      <c r="C8" s="20"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="83" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" s="83" t="s">
-        <v>209</v>
-      </c>
-      <c r="C9" s="21"/>
+      <c r="A9" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" s="20"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="79" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="55" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="21" t="s">
+      <c r="C16" s="20"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="20"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="33"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="33"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="33"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="33"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="75" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22" s="75" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="33"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="81" t="s">
-        <v>202</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="21"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="21"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="35"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="35"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="79" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20" s="35"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="73" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="35"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="77" t="s">
-        <v>165</v>
-      </c>
-      <c r="B22" s="77" t="s">
-        <v>164</v>
-      </c>
-      <c r="C22" s="35"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="B23" s="52" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="B24" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" s="33"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="C23" s="21" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="B24" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="C24" s="35"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="B25" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>76</v>
+      <c r="B25" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="35" t="s">
-        <v>77</v>
+      <c r="C26" s="33" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>75</v>
+      <c r="A27" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="C28" s="35"/>
+        <v>263</v>
+      </c>
+      <c r="C28" s="33"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" s="35"/>
+        <v>131</v>
+      </c>
+      <c r="C29" s="33"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
@@ -5328,100 +5300,100 @@
       <c r="B30" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="35"/>
+      <c r="C30" s="33"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="C31" s="35"/>
+      <c r="A31" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="33"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="20"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B33" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="21"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="105" t="s">
-        <v>276</v>
-      </c>
-      <c r="B34" s="105" t="s">
-        <v>277</v>
+      <c r="A34" s="103" t="s">
+        <v>274</v>
+      </c>
+      <c r="B34" s="103" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>205</v>
+      <c r="A35" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="74" t="s">
+      <c r="A37" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="74" t="s">
-        <v>47</v>
+      <c r="B37" s="72" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="75" t="s">
-        <v>268</v>
-      </c>
-      <c r="B38" s="75" t="s">
-        <v>263</v>
+      <c r="A38" s="73" t="s">
+        <v>266</v>
+      </c>
+      <c r="B38" s="73" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="35" t="s">
-        <v>179</v>
+      <c r="A40" s="33" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="35"/>
+      <c r="A41" s="33"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="35" t="s">
-        <v>180</v>
+      <c r="A42" s="33" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="35"/>
+      <c r="A43" s="33"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -5447,22 +5419,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="21"/>
+      <c r="A1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>273</v>
+      <c r="B2" s="19" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>273</v>
+      <c r="A3" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -5478,55 +5450,55 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="70" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="68" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="83" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" s="83" t="s">
-        <v>209</v>
+    <row r="9" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="48" t="s">
         <v>40</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -5546,10 +5518,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="37" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5558,53 +5530,53 @@
         <v>2</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="B16" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>247</v>
+      <c r="C16" s="20" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>248</v>
+      <c r="C17" s="20" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="82" t="s">
-        <v>206</v>
-      </c>
-      <c r="B20" s="82" t="s">
-        <v>205</v>
+      <c r="A20" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" s="80" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -5636,15 +5608,15 @@
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -5660,47 +5632,47 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="70" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="68" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="48" t="s">
         <v>40</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -5720,10 +5692,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="37" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5732,53 +5704,53 @@
         <v>2</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="B15" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>247</v>
+      <c r="C15" s="20" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="B16" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>248</v>
+      <c r="C16" s="20" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="82" t="s">
-        <v>206</v>
-      </c>
-      <c r="B19" s="82" t="s">
-        <v>205</v>
+      <c r="A19" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="B19" s="80" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -5811,15 +5783,15 @@
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -5835,55 +5807,55 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="70" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="68" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="83" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" s="83" t="s">
-        <v>209</v>
+    <row r="9" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="48" t="s">
         <v>40</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -5903,10 +5875,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="37" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5915,57 +5887,57 @@
         <v>2</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="B16" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>247</v>
+      <c r="C16" s="20" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>248</v>
+      <c r="C17" s="20" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="21"/>
+        <v>47</v>
+      </c>
+      <c r="C18" s="20"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="21"/>
+        <v>48</v>
+      </c>
+      <c r="C19" s="20"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="22"/>
+        <v>66</v>
+      </c>
+      <c r="C20" s="21"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
@@ -5994,23 +5966,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="21"/>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D2" s="21"/>
+        <v>198</v>
+      </c>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -6026,27 +5998,27 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="52" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -6054,27 +6026,27 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="83" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" s="83" t="s">
-        <v>209</v>
+      <c r="A9" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>40</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -6102,59 +6074,59 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="39" t="s">
-        <v>32</v>
+      <c r="B15" s="37" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="B16" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>250</v>
+      <c r="C16" s="20" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>249</v>
+      <c r="C17" s="20" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="21"/>
+        <v>47</v>
+      </c>
+      <c r="D18" s="20"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="21"/>
+        <v>48</v>
+      </c>
+      <c r="D19" s="20"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="82" t="s">
-        <v>206</v>
-      </c>
-      <c r="B20" s="82" t="s">
-        <v>205</v>
+      <c r="A20" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" s="80" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -6174,7 +6146,7 @@
   </sheetPr>
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6183,21 +6155,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>185</v>
+      <c r="A1" s="20" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>279</v>
+      <c r="A2" s="20" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -6213,67 +6185,67 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>155</v>
+        <v>43</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>89</v>
+      <c r="A7" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="34" t="s">
-        <v>129</v>
+      <c r="C8" s="32" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="83" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" s="83" t="s">
-        <v>209</v>
+      <c r="A9" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>191</v>
+        <v>29</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>91</v>
+      <c r="C11" s="43" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -6283,19 +6255,19 @@
       <c r="B12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>189</v>
+      <c r="C12" s="20" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>190</v>
+      <c r="C13" s="20" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -6307,11 +6279,11 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="81" t="s">
-        <v>202</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>201</v>
+      <c r="A15" s="79" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -6319,15 +6291,15 @@
         <v>2</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -6335,16 +6307,16 @@
         <v>3</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="21"/>
+        <v>36</v>
+      </c>
+      <c r="C18" s="20"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -6352,64 +6324,64 @@
         <v>0</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="98" t="s">
-        <v>165</v>
-      </c>
-      <c r="B21" s="98" t="s">
-        <v>164</v>
+      <c r="A21" s="96" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" s="96" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="B23" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="C23" s="20" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="B24" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="C23" s="21" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="B24" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="B25" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="C25" s="21"/>
+      <c r="B25" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="C25" s="20"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C26" s="21"/>
+        <v>157</v>
+      </c>
+      <c r="C26" s="20"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
@@ -6418,25 +6390,25 @@
       <c r="B27" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="21"/>
+      <c r="C27" s="20"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="C28" s="21"/>
+        <v>263</v>
+      </c>
+      <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" s="21"/>
+        <v>131</v>
+      </c>
+      <c r="C29" s="20"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
@@ -6445,174 +6417,174 @@
       <c r="B30" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="21"/>
+      <c r="C30" s="20"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>161</v>
+      <c r="A31" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="21"/>
+        <v>47</v>
+      </c>
+      <c r="C32" s="20"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="21"/>
+        <v>48</v>
+      </c>
+      <c r="C33" s="20"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="105" t="s">
-        <v>276</v>
-      </c>
-      <c r="B34" s="105" t="s">
-        <v>277</v>
-      </c>
-      <c r="C34" s="21"/>
+      <c r="A34" s="103" t="s">
+        <v>274</v>
+      </c>
+      <c r="B34" s="103" t="s">
+        <v>275</v>
+      </c>
+      <c r="C34" s="20"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>205</v>
+      <c r="A35" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="102"/>
-      <c r="B36" s="102"/>
+      <c r="A36" s="100"/>
+      <c r="B36" s="100"/>
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="103" t="s">
-        <v>270</v>
+      <c r="A37" s="101" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="78" t="s">
-        <v>266</v>
-      </c>
-      <c r="B39" s="90" t="s">
-        <v>217</v>
+      <c r="A39" s="76" t="s">
+        <v>264</v>
+      </c>
+      <c r="B39" s="88" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="88" t="s">
-        <v>195</v>
-      </c>
-      <c r="B40" s="89" t="s">
-        <v>213</v>
+      <c r="A40" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="B40" s="87" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="95" t="s">
-        <v>218</v>
-      </c>
-      <c r="B41" s="89" t="s">
-        <v>214</v>
+      <c r="A41" s="93" t="s">
+        <v>216</v>
+      </c>
+      <c r="B41" s="87" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="35" t="s">
-        <v>67</v>
+      <c r="A50" s="33" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="35" t="s">
-        <v>173</v>
+      <c r="A53" s="33" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="21" t="s">
-        <v>84</v>
+      <c r="A55" s="20" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="92" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AccBase_Specification_KZ-RU.xlsx
+++ b/AccBase_Specification_KZ-RU.xlsx
@@ -9,38 +9,37 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
     <sheet name="Role" sheetId="273" r:id="rId2"/>
     <sheet name="Info" sheetId="339" r:id="rId3"/>
     <sheet name="InfoData" sheetId="463" r:id="rId4"/>
-    <sheet name="AppMath" sheetId="429" r:id="rId5"/>
-    <sheet name="AppData" sheetId="399" r:id="rId6"/>
+    <sheet name="AppData" sheetId="399" r:id="rId5"/>
+    <sheet name="AppMeter" sheetId="481" r:id="rId6"/>
     <sheet name="AppMark" sheetId="342" r:id="rId7"/>
     <sheet name="Sign" sheetId="254" r:id="rId8"/>
     <sheet name="LogData" sheetId="236" r:id="rId9"/>
     <sheet name="Operation" sheetId="30" r:id="rId10"/>
     <sheet name="Face" sheetId="41" r:id="rId11"/>
     <sheet name="Price" sheetId="219" r:id="rId12"/>
-    <sheet name="CurrencyData" sheetId="65" r:id="rId13"/>
-    <sheet name="Budget" sheetId="98" r:id="rId14"/>
-    <sheet name="Contract" sheetId="89" r:id="rId15"/>
-    <sheet name="Tax" sheetId="93" r:id="rId16"/>
-    <sheet name="Country" sheetId="172" r:id="rId17"/>
-    <sheet name="Account" sheetId="13" r:id="rId18"/>
-    <sheet name="Asset" sheetId="48" r:id="rId19"/>
-    <sheet name="Unit" sheetId="91" r:id="rId20"/>
-    <sheet name="View" sheetId="462" r:id="rId21"/>
-    <sheet name="_Enum" sheetId="480" r:id="rId22"/>
+    <sheet name="Budget" sheetId="98" r:id="rId13"/>
+    <sheet name="Contract" sheetId="89" r:id="rId14"/>
+    <sheet name="Tax" sheetId="93" r:id="rId15"/>
+    <sheet name="Country" sheetId="172" r:id="rId16"/>
+    <sheet name="Account" sheetId="13" r:id="rId17"/>
+    <sheet name="Asset" sheetId="48" r:id="rId18"/>
+    <sheet name="Unit" sheetId="91" r:id="rId19"/>
+    <sheet name="View" sheetId="462" r:id="rId20"/>
+    <sheet name="_Enum" sheetId="480" r:id="rId21"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="252">
   <si>
     <t>Договор</t>
   </si>
@@ -57,30 +56,18 @@
     <t>Код</t>
   </si>
   <si>
-    <t>Количество</t>
-  </si>
-  <si>
     <t>Наименование</t>
   </si>
   <si>
-    <t>Сумма</t>
-  </si>
-  <si>
     <t>Contract</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
     <t>Operation</t>
   </si>
   <si>
-    <t>Amount</t>
-  </si>
-  <si>
     <t>Бюджет</t>
   </si>
   <si>
@@ -180,9 +167,6 @@
     <t>Основной</t>
   </si>
   <si>
-    <t>Полное наименование</t>
-  </si>
-  <si>
     <t>Detail1</t>
   </si>
   <si>
@@ -261,15 +245,6 @@
     <t>Ед изм</t>
   </si>
   <si>
-    <t>ед изм куда, например, "условная банка"</t>
-  </si>
-  <si>
-    <t>например, равно</t>
-  </si>
-  <si>
-    <t>значение, например = 1,7</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - AccDataKindId = план, норма и т.д.</t>
   </si>
   <si>
@@ -279,13 +254,7 @@
     <t xml:space="preserve">  - актив</t>
   </si>
   <si>
-    <t xml:space="preserve">  - знак (равно и т.д.)</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - вид себест-ти (произв-я, таможенная и т.д.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - валюта</t>
   </si>
   <si>
     <r>
@@ -315,9 +284,6 @@
     <t xml:space="preserve">  - сумма и т.д. (можно диапазон суммы "от" и "до")</t>
   </si>
   <si>
-    <t>Количество (значение)</t>
-  </si>
-  <si>
     <t>Единица измерения</t>
   </si>
   <si>
@@ -453,12 +419,6 @@
     <t>здесь также - подробности выполнения договора (планового, фактического, прогнозного и т.д.)</t>
   </si>
   <si>
-    <t>Цена нетто</t>
-  </si>
-  <si>
-    <t>PriceNetto</t>
-  </si>
-  <si>
     <t>операции (цепочки операций)</t>
   </si>
   <si>
@@ -537,15 +497,6 @@
     <t>UnitId</t>
   </si>
   <si>
-    <t>CurrencyData</t>
-  </si>
-  <si>
-    <t>CurrencyDataId</t>
-  </si>
-  <si>
-    <t>Валютные данные</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
@@ -567,9 +518,6 @@
     <t>трудовые договора - это субдоговора с каждым сотром (лицом) под рамочным договором = штатным расписанием</t>
   </si>
   <si>
-    <t>здесь же данные для штатного расписания с типом "план"</t>
-  </si>
-  <si>
     <t>может быть норматив, план и т.д.</t>
   </si>
   <si>
@@ -579,33 +527,21 @@
     <t>перевозки, маршруты, события, интеграции, выгрузки, обмены данными</t>
   </si>
   <si>
-    <t>для указания курсов валют - это валюта измеритель</t>
-  </si>
-  <si>
     <t>в 1 строке для бухсчета здесь - нормативный код счета из данного плана счетов</t>
   </si>
   <si>
     <t>в 1 строке для бухсчета здесь - нормативное наименование счета из данного плана счетов</t>
   </si>
   <si>
-    <t>таблица плана счетов, вид проводки и т.д.</t>
-  </si>
-  <si>
     <t>объектная часть адреса</t>
   </si>
   <si>
-    <t>пересчет разных ЕИ друг в друга, регистрация отношений, и т.д.</t>
-  </si>
-  <si>
     <t>адресные данные лиц, складов, субскладов и т.д.</t>
   </si>
   <si>
     <t>данные цен, скидок</t>
   </si>
   <si>
-    <t>валюты, валютные курсы, прочие валютные данные</t>
-  </si>
-  <si>
     <t>конкретная перевозка, например, из Астаны в Алматы</t>
   </si>
   <si>
@@ -651,12 +587,6 @@
     <t>RoleId</t>
   </si>
   <si>
-    <t>MathId</t>
-  </si>
-  <si>
-    <t>Математика</t>
-  </si>
-  <si>
     <t>Sign</t>
   </si>
   <si>
@@ -693,27 +623,9 @@
     <t>Роль статьи бюджета</t>
   </si>
   <si>
-    <t>информационные данные широкого профиля (кроме проводок и документов)</t>
-  </si>
-  <si>
     <t>Инфо</t>
   </si>
   <si>
-    <t>ПС детализация - актив, договор и т.д.</t>
-  </si>
-  <si>
-    <t>роль дока, формы - док или журнал и т.д.</t>
-  </si>
-  <si>
-    <t>самое общее описании операции</t>
-  </si>
-  <si>
-    <t>самое общее описание проводки</t>
-  </si>
-  <si>
-    <t>роль проводки - одинарная и т.д.</t>
-  </si>
-  <si>
     <t>структура налога верхнего уровня ---</t>
   </si>
   <si>
@@ -786,12 +698,6 @@
     <t>вид адреса (для адреса)</t>
   </si>
   <si>
-    <t>роль валюты</t>
-  </si>
-  <si>
-    <t>вид инфо валюты</t>
-  </si>
-  <si>
     <t>роль налога в цене, или роль корректировки цен</t>
   </si>
   <si>
@@ -819,15 +725,6 @@
     <t>роль детализации налога</t>
   </si>
   <si>
-    <t>для указания курсов валют - это валюта курс которой записан</t>
-  </si>
-  <si>
-    <t>например, 1 доллар</t>
-  </si>
-  <si>
-    <t>например, XXX тенге</t>
-  </si>
-  <si>
     <t>все детализации бюджета</t>
   </si>
   <si>
@@ -846,39 +743,15 @@
     <t>структура статьи 2 уровня (производной)</t>
   </si>
   <si>
-    <t>Все infodata</t>
-  </si>
-  <si>
-    <t>Время</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>структура проводки ---</t>
-  </si>
-  <si>
     <t>операция без документа также записывается (событие, согласование и т.д.)</t>
   </si>
   <si>
-    <t>0.Все infodata</t>
-  </si>
-  <si>
     <t>состав договора и одновременно проводки по приходу или расходу склада</t>
   </si>
   <si>
     <t>2 слой данных = шаблоны заполнения docdata в зависмости от operation\role</t>
   </si>
   <si>
-    <t>структура ---</t>
-  </si>
-  <si>
-    <t>дополнительные к основным роли, инфо, знаки и т.д.</t>
-  </si>
-  <si>
-    <t>AppMath</t>
-  </si>
-  <si>
     <t>https://github.com/KursakovSA/AccBase</t>
   </si>
   <si>
@@ -904,13 +777,52 @@
   </si>
   <si>
     <t>LogDataId</t>
+  </si>
+  <si>
+    <t>пересчет разных ЕИ друг в друга</t>
+  </si>
+  <si>
+    <t>курсы валют</t>
+  </si>
+  <si>
+    <t>регистрация отношений, и т.д.</t>
+  </si>
+  <si>
+    <t>дополнительные к основным роли, инфо и т.д.</t>
+  </si>
+  <si>
+    <t>информационные данные широкого профиля (кроме проводок и документов, кроме курсов валют)</t>
+  </si>
+  <si>
+    <t>данные для штатного расписания с типом "план"</t>
+  </si>
+  <si>
+    <t>AppMeter</t>
+  </si>
+  <si>
+    <t>Измерители приложения</t>
+  </si>
+  <si>
+    <t>AppMeterId</t>
+  </si>
+  <si>
+    <t>Измеритель приложения</t>
+  </si>
+  <si>
+    <t>Значение измерителя</t>
+  </si>
+  <si>
+    <t>ValueMeter</t>
+  </si>
+  <si>
+    <t>строка</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -984,20 +896,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Franklin Gothic Medium"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1022,18 +920,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="0"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1162,15 +1054,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1206,14 +1097,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1243,16 +1128,16 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1268,10 +1153,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1307,12 +1192,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1339,44 +1218,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="5">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный_AppMethodCalcKind" xfId="3"/>
-    <cellStyle name="Обычный_DocData" xfId="5"/>
+    <cellStyle name="Обычный_DocData" xfId="4"/>
     <cellStyle name="Обычный_FaceRoleKind_1" xfId="2"/>
-    <cellStyle name="Обычный_Лист1" xfId="4"/>
+    <cellStyle name="Обычный_Лист1" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1690,7 +1560,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -1698,20 +1568,20 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
+      <c r="A4" s="24"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="102" t="s">
-        <v>272</v>
+      <c r="A5" s="94" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
-        <v>273</v>
+      <c r="A7" s="19" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -1730,13 +1600,13 @@
   <sheetPr codeName="Лист32">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.140625" style="67" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" style="65" customWidth="1"/>
     <col min="2" max="2" width="42.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
     <col min="4" max="14" width="6.7109375" style="1" customWidth="1"/>
@@ -1744,225 +1614,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
-        <v>132</v>
+      <c r="A1" s="68" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
-        <v>265</v>
+      <c r="A2" s="68" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="57" t="s">
-        <v>19</v>
-      </c>
       <c r="B4" s="14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="58" t="s">
-        <v>17</v>
+      <c r="A5" s="56" t="s">
+        <v>13</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="77" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="30"/>
+    </row>
+    <row r="15" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="35" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="60" t="s">
+      <c r="C15" s="30"/>
+    </row>
+    <row r="16" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+    </row>
+    <row r="17" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+    </row>
+    <row r="18" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+    </row>
+    <row r="19" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B19" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="30"/>
+    </row>
+    <row r="20" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="48" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="81" t="s">
-        <v>208</v>
-      </c>
-      <c r="B10" s="81" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="32"/>
-    </row>
-    <row r="15" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="32"/>
-    </row>
-    <row r="16" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-    </row>
-    <row r="17" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-    </row>
-    <row r="18" spans="1:8" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="B18" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-    </row>
-    <row r="19" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="32"/>
-    </row>
-    <row r="20" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="32"/>
+      <c r="C20" s="30"/>
     </row>
     <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="80" t="s">
-        <v>204</v>
-      </c>
-      <c r="B21" s="80" t="s">
-        <v>203</v>
+      <c r="A21" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" s="76" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="66"/>
+      <c r="A22" s="64"/>
       <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="69"/>
-      <c r="B23" s="26"/>
-    </row>
-    <row r="24" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="76" t="s">
-        <v>269</v>
-      </c>
-      <c r="B24" s="88" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="B25" s="87" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="90" t="s">
-        <v>213</v>
-      </c>
-      <c r="B26" s="49"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="96" fitToHeight="0" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -1978,32 +1826,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2011,148 +1859,148 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="81" t="s">
-        <v>208</v>
-      </c>
-      <c r="B8" s="81" t="s">
-        <v>207</v>
+      <c r="A8" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="77" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
+        <v>36</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>28</v>
+      <c r="B13" s="35" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="20"/>
+      <c r="B14" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="19"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>228</v>
+      <c r="A15" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>229</v>
+      <c r="A16" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
+        <v>42</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
+        <v>43</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="80" t="s">
-        <v>204</v>
-      </c>
-      <c r="B19" s="80" t="s">
-        <v>203</v>
+      <c r="A19" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="76" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2183,26 +2031,26 @@
   <sheetData>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2210,135 +2058,135 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="68" t="s">
-        <v>25</v>
+      <c r="A8" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="81" t="s">
-        <v>208</v>
-      </c>
-      <c r="B9" s="81" t="s">
-        <v>207</v>
+      <c r="A9" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="20"/>
+      <c r="B14" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="19"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="20"/>
+      <c r="B15" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="19"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>243</v>
+      <c r="A16" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="B17" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>244</v>
+      <c r="A17" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="80" t="s">
-        <v>204</v>
-      </c>
-      <c r="B20" s="80" t="s">
-        <v>203</v>
+      <c r="A20" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="76" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2352,251 +2200,6 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист11">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:C26"/>
-  <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="81" t="s">
-        <v>208</v>
-      </c>
-      <c r="B9" s="81" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="B17" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="C18" s="20"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="20"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="C21" s="20"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="80" t="s">
-        <v>204</v>
-      </c>
-      <c r="B25" s="80" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2612,37 +2215,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>186</v>
+      <c r="A1" s="19" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2650,133 +2253,133 @@
         <v>4</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="81" t="s">
-        <v>208</v>
-      </c>
-      <c r="B10" s="81" t="s">
-        <v>207</v>
+      <c r="A10" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="77" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="53" t="s">
-        <v>40</v>
+      <c r="A12" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>28</v>
+      <c r="B15" s="28" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="37" t="s">
-        <v>31</v>
+      <c r="B16" s="35" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>231</v>
+      <c r="A17" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="B18" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>232</v>
+      <c r="A18" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="80" t="s">
-        <v>204</v>
-      </c>
-      <c r="B21" s="80" t="s">
-        <v>203</v>
+      <c r="A21" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" s="76" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -2784,73 +2387,73 @@
       <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="88" t="s">
-        <v>259</v>
-      </c>
-      <c r="B24" s="26"/>
+      <c r="A24" s="82" t="s">
+        <v>225</v>
+      </c>
+      <c r="B24" s="24"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="97" t="s">
-        <v>258</v>
-      </c>
-      <c r="B25" s="97" t="s">
-        <v>209</v>
-      </c>
-      <c r="C25" s="98" t="s">
-        <v>257</v>
-      </c>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
+      <c r="A25" s="89" t="s">
+        <v>224</v>
+      </c>
+      <c r="B25" s="89" t="s">
+        <v>186</v>
+      </c>
+      <c r="C25" s="90" t="s">
+        <v>223</v>
+      </c>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="98">
+      <c r="A26" s="90">
         <v>3</v>
       </c>
-      <c r="B26" s="98" t="s">
-        <v>182</v>
-      </c>
-      <c r="C26" s="98" t="s">
-        <v>255</v>
-      </c>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
+      <c r="B26" s="90" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="90" t="s">
+        <v>221</v>
+      </c>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="88" t="s">
-        <v>260</v>
-      </c>
-      <c r="B28" s="26"/>
+      <c r="A28" s="82" t="s">
+        <v>226</v>
+      </c>
+      <c r="B28" s="24"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="94" t="s">
-        <v>258</v>
-      </c>
-      <c r="B29" s="97" t="s">
-        <v>209</v>
-      </c>
-      <c r="C29" s="98" t="s">
-        <v>257</v>
+      <c r="A29" s="86" t="s">
+        <v>224</v>
+      </c>
+      <c r="B29" s="89" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="90" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="95" t="s">
-        <v>249</v>
-      </c>
-      <c r="B30" s="98" t="s">
-        <v>222</v>
-      </c>
-      <c r="C30" s="98" t="s">
-        <v>223</v>
+      <c r="A30" s="87" t="s">
+        <v>218</v>
+      </c>
+      <c r="B30" s="90" t="s">
+        <v>193</v>
+      </c>
+      <c r="C30" s="90" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2860,7 +2463,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2871,17 +2474,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -2889,15 +2492,15 @@
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2905,158 +2508,158 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="81" t="s">
-        <v>208</v>
-      </c>
-      <c r="B9" s="81" t="s">
-        <v>207</v>
+      <c r="A9" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="D10" s="20"/>
+        <v>25</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="20"/>
+        <v>36</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="19"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="D12" s="20"/>
+        <v>7</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="19"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>28</v>
+      <c r="B14" s="28" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
+      <c r="B15" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>235</v>
+      <c r="A16" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="B17" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>236</v>
+      <c r="A17" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="20"/>
+        <v>42</v>
+      </c>
+      <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="20"/>
+        <v>43</v>
+      </c>
+      <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="80" t="s">
-        <v>204</v>
-      </c>
-      <c r="B20" s="80" t="s">
-        <v>203</v>
+      <c r="A20" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="76" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -3065,17 +2668,17 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3085,7 +2688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3101,14 +2704,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20"/>
+      <c r="A1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
@@ -3116,15 +2719,15 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -3132,134 +2735,134 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="81" t="s">
-        <v>208</v>
-      </c>
-      <c r="B9" s="81" t="s">
-        <v>207</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="A9" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="40"/>
+        <v>36</v>
+      </c>
+      <c r="C11" s="38"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="37" t="s">
-        <v>31</v>
+      <c r="B15" s="35" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>195</v>
+      <c r="A16" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="B17" s="51" t="s">
-        <v>192</v>
+      <c r="A17" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
-        <v>62</v>
+      <c r="A18" s="21" t="s">
+        <v>57</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="80" t="s">
-        <v>204</v>
-      </c>
-      <c r="B20" s="80" t="s">
-        <v>203</v>
+      <c r="A20" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="76" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -3267,59 +2870,59 @@
       <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="76" t="s">
-        <v>217</v>
-      </c>
-      <c r="B23" s="88" t="s">
-        <v>218</v>
+      <c r="A23" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="B23" s="82" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="91" t="s">
-        <v>193</v>
-      </c>
-      <c r="B24" s="92" t="s">
-        <v>211</v>
+      <c r="A24" s="84" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="85" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="89" t="s">
-        <v>250</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>256</v>
+      <c r="A25" s="83" t="s">
+        <v>219</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="76"/>
-      <c r="B26" s="88"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="82"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="76" t="s">
-        <v>219</v>
-      </c>
-      <c r="B27" s="88" t="s">
+      <c r="A27" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" s="82" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="84" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" s="85" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="83" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="91" t="s">
-        <v>193</v>
-      </c>
-      <c r="B28" s="92" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="89" t="s">
-        <v>251</v>
-      </c>
-      <c r="B29" s="49" t="s">
-        <v>221</v>
+      <c r="B29" s="47" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3329,7 +2932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3345,32 +2948,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>68</v>
+      <c r="A1" s="19" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3378,143 +2981,143 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="52" t="s">
-        <v>22</v>
+      <c r="A8" s="50" t="s">
+        <v>18</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="81" t="s">
-        <v>208</v>
-      </c>
-      <c r="B9" s="81" t="s">
-        <v>207</v>
+      <c r="A9" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="53" t="s">
-        <v>40</v>
+      <c r="A11" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="37" t="s">
-        <v>31</v>
+      <c r="B14" s="35" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
+      <c r="A15" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
+      <c r="A16" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
+        <v>42</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+        <v>43</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="80" t="s">
-        <v>204</v>
-      </c>
-      <c r="B19" s="80" t="s">
-        <v>203</v>
+      <c r="A19" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="76" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -3529,7 +3132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист38">
     <pageSetUpPr fitToPage="1"/>
@@ -3547,30 +3150,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="20"/>
+      <c r="A1" s="19"/>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3578,154 +3181,154 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="52" t="s">
-        <v>22</v>
+      <c r="A8" s="50" t="s">
+        <v>18</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="81" t="s">
-        <v>208</v>
-      </c>
-      <c r="B9" s="81" t="s">
-        <v>207</v>
+      <c r="A9" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
+        <v>25</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
+        <v>36</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>92</v>
+        <v>7</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
+      <c r="B14" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
     </row>
     <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>233</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
+      <c r="A15" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
+      <c r="A16" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>150</v>
+      <c r="A17" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="20"/>
+        <v>42</v>
+      </c>
+      <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="20"/>
+        <v>43</v>
+      </c>
+      <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="80" t="s">
-        <v>204</v>
-      </c>
-      <c r="B20" s="80" t="s">
-        <v>203</v>
+      <c r="A20" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="76" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -3740,7 +3343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист43">
     <pageSetUpPr fitToPage="1"/>
@@ -3758,26 +3361,26 @@
   <sheetData>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3785,146 +3388,146 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>25</v>
+      <c r="A8" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="81" t="s">
-        <v>208</v>
-      </c>
-      <c r="B9" s="81" t="s">
-        <v>207</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>169</v>
+      <c r="A9" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="38"/>
+      <c r="A11" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="36"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="20"/>
+        <v>7</v>
+      </c>
+      <c r="C12" s="19"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="20"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="19"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="20"/>
+        <v>24</v>
+      </c>
+      <c r="C14" s="19"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="20"/>
+      <c r="B15" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="19"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="B16" s="50" t="s">
+      <c r="A16" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>195</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="B17" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="20"/>
+        <v>42</v>
+      </c>
+      <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="20"/>
+        <v>43</v>
+      </c>
+      <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="80" t="s">
-        <v>204</v>
-      </c>
-      <c r="B20" s="80" t="s">
-        <v>203</v>
+      <c r="A20" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="76" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -3932,28 +3535,28 @@
       <c r="B21" s="4"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
-        <v>55</v>
+      <c r="A23" s="23" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="21"/>
+      <c r="A24" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="20"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="21"/>
+      <c r="C25" s="20"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="20"/>
+      <c r="A26" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="19"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
-        <v>54</v>
+      <c r="A27" s="23" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -3961,6 +3564,240 @@
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:C28"/>
+  <sheetViews>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="88" t="s">
+        <v>248</v>
+      </c>
+      <c r="B18" s="88" t="s">
+        <v>247</v>
+      </c>
+      <c r="C18" s="19"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="19"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="19"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="19"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="95" t="s">
+        <v>232</v>
+      </c>
+      <c r="B23" s="95" t="s">
+        <v>233</v>
+      </c>
+      <c r="C23" s="19"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3975,33 +3812,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="2" width="41.85546875" customWidth="1"/>
     <col min="3" max="3" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4009,121 +3846,121 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>25</v>
+      <c r="A8" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="81" t="s">
-        <v>208</v>
-      </c>
-      <c r="B9" s="81" t="s">
-        <v>207</v>
+      <c r="A9" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>28</v>
+      <c r="B14" s="35" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="20"/>
+      <c r="B15" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="19"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="D16" s="20"/>
+      <c r="A16" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" s="19"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="80" t="s">
-        <v>204</v>
-      </c>
-      <c r="B19" s="80" t="s">
-        <v>203</v>
+      <c r="A19" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="76" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -4132,195 +3969,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:C21"/>
-  <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="81" t="s">
-        <v>208</v>
-      </c>
-      <c r="B9" s="81" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="B17" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="80" t="s">
-        <v>204</v>
-      </c>
-      <c r="B20" s="80" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4342,26 +3995,26 @@
   <sheetData>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4369,138 +4022,138 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>87</v>
+      <c r="A7" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>25</v>
+      <c r="A8" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="81" t="s">
-        <v>208</v>
-      </c>
-      <c r="B9" s="81" t="s">
-        <v>207</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="A9" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>184</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="37" t="s">
-        <v>31</v>
+      <c r="B15" s="35" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>195</v>
+      <c r="A16" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>174</v>
       </c>
       <c r="C16" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="B17" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="D17" s="20"/>
+      <c r="A17" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="20"/>
+        <v>42</v>
+      </c>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="20"/>
+        <v>43</v>
+      </c>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="80" t="s">
-        <v>204</v>
-      </c>
-      <c r="B20" s="80" t="s">
-        <v>203</v>
+      <c r="A20" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="76" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -4513,7 +4166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
@@ -4527,323 +4180,323 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="19" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C11" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="55" t="s">
-        <v>126</v>
+      <c r="A14" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="53" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="53" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B28" s="53" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="55" t="s">
+    <row r="29" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B30" s="53" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="B17" s="55" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="B18" s="55" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" s="55" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="55" t="s">
+    <row r="31" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="53" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B32" s="53" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="55" t="s">
+    <row r="33" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B33" s="53" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="55" t="s">
+    <row r="34" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B34" s="53" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="55" t="s">
+    <row r="35" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="B35" s="53" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="55" t="s">
+    <row r="36" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="B36" s="53" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="55" t="s">
+    <row r="37" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B37" s="53" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="55" t="s">
+    <row r="38" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B38" s="53" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="55" t="s">
+    <row r="39" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A39" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="55" t="s">
+      <c r="B39" s="53" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="55" t="s">
+    <row r="40" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="B28" s="55" t="s">
+      <c r="B40" s="53" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" s="55" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="55" t="s">
+    <row r="41" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="B30" s="55" t="s">
+      <c r="B41" s="53" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="55" t="s">
+    <row r="42" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="55" t="s">
+      <c r="B42" s="53" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="55" t="s">
+    <row r="43" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B43" s="53" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="55" t="s">
+    <row r="44" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="B33" s="55" t="s">
+      <c r="B44" s="53" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="B34" s="55" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="B35" s="55" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" s="55" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="B37" s="55" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="B38" s="55" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="B39" s="55" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" s="55" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="B41" s="55" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="B42" s="55" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="B43" s="55" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="B44" s="55" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4862,34 +4515,34 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="82" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" style="82" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" style="82" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="82"/>
+    <col min="1" max="1" width="28.5703125" style="78" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" style="78" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" style="78" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="78"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -4897,111 +4550,111 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>87</v>
+      <c r="A7" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>25</v>
+      <c r="A8" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="83" t="s">
-        <v>208</v>
-      </c>
-      <c r="B9" s="83" t="s">
-        <v>207</v>
+      <c r="A9" s="79" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="79" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>40</v>
+      <c r="A11" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="84" t="s">
-        <v>10</v>
+      <c r="A12" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="85" t="s">
-        <v>28</v>
+      <c r="B14" s="81" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="27" t="s">
-        <v>31</v>
+      <c r="B15" s="25" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>47</v>
+      <c r="A16" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>48</v>
+      <c r="A17" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="80" t="s">
-        <v>204</v>
-      </c>
-      <c r="B18" s="80" t="s">
-        <v>203</v>
+      <c r="A18" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" s="76" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -5010,7 +4663,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5019,7 +4672,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -5031,369 +4684,311 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
-        <v>210</v>
+      <c r="A1" s="31" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>165</v>
+      <c r="B5" s="25" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="20"/>
+      <c r="A6" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="19"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="19"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="20"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="81" t="s">
-        <v>208</v>
-      </c>
-      <c r="B9" s="81" t="s">
-        <v>207</v>
-      </c>
-      <c r="C9" s="20"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="75" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="19"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="19"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="31"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="20" t="s">
+      <c r="C19" s="31"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="31"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="31"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="31"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" s="48" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="79" t="s">
-        <v>200</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="20"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="74" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="20"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="33"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="33"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="77" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" s="33"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="71" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="33"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="75" t="s">
-        <v>163</v>
-      </c>
-      <c r="B22" s="75" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" s="33"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>175</v>
-      </c>
+      <c r="C23" s="19"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="B24" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="C24" s="33"/>
+      <c r="A24" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="31"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="B25" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>74</v>
-      </c>
+      <c r="A25" s="88" t="s">
+        <v>248</v>
+      </c>
+      <c r="B25" s="88" t="s">
+        <v>247</v>
+      </c>
+      <c r="C25" s="31"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>75</v>
+      <c r="A26" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>73</v>
-      </c>
+      <c r="A27" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="31"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="C28" s="33"/>
+      <c r="A28" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="19"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="33"/>
+      <c r="A29" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="33"/>
+      <c r="A30" s="95" t="s">
+        <v>232</v>
+      </c>
+      <c r="B30" s="95" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="B31" s="27" t="s">
+      <c r="A31" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="31"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="31"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="33"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="20"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="103" t="s">
-        <v>274</v>
-      </c>
-      <c r="B34" s="103" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="72" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="72" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="73" t="s">
-        <v>266</v>
-      </c>
-      <c r="B38" s="73" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="33" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="33"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="33" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="33"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>270</v>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -5404,192 +4999,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="20"/>
-    </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="68" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="81" t="s">
-        <v>208</v>
-      </c>
-      <c r="B9" s="81" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="B17" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="80" t="s">
-        <v>204</v>
-      </c>
-      <c r="B20" s="80" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.31496062992125984" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="93" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -5605,26 +5014,26 @@
   <sheetData>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5632,71 +5041,71 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="68" t="s">
-        <v>25</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>40</v>
+      <c r="A10" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>28</v>
+      <c r="B13" s="35" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -5704,53 +5113,53 @@
         <v>2</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>245</v>
+      <c r="A15" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>246</v>
+      <c r="A16" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="80" t="s">
-        <v>204</v>
-      </c>
-      <c r="B19" s="80" t="s">
-        <v>203</v>
+      <c r="A19" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="76" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -5760,6 +5169,176 @@
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.19685039370078741" footer="0"/>
   <pageSetup paperSize="9" scale="96" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C20"/>
+  <sheetViews>
+    <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="37.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="76" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5780,26 +5359,26 @@
   <sheetData>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5807,79 +5386,79 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="68" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="81" t="s">
-        <v>208</v>
-      </c>
-      <c r="B9" s="81" t="s">
-        <v>207</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>40</v>
+      <c r="A11" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>28</v>
+      <c r="B14" s="35" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -5887,57 +5466,57 @@
         <v>2</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>245</v>
+      <c r="A16" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="B17" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>246</v>
+      <c r="A17" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="20"/>
+        <v>42</v>
+      </c>
+      <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="20"/>
+        <v>43</v>
+      </c>
+      <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="21"/>
+        <v>61</v>
+      </c>
+      <c r="C20" s="20"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
@@ -5960,37 +5539,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="20"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D2" s="20"/>
+        <v>175</v>
+      </c>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5998,135 +5577,135 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="52" t="s">
-        <v>22</v>
+      <c r="A8" s="50" t="s">
+        <v>18</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="81" t="s">
-        <v>208</v>
-      </c>
-      <c r="B9" s="81" t="s">
-        <v>207</v>
+      <c r="A9" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="37" t="s">
-        <v>31</v>
+      <c r="B15" s="35" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>248</v>
+      <c r="A16" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="B17" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>247</v>
+      <c r="A17" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="20"/>
+        <v>42</v>
+      </c>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="20"/>
+        <v>43</v>
+      </c>
+      <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="80" t="s">
-        <v>204</v>
-      </c>
-      <c r="B20" s="80" t="s">
-        <v>203</v>
+      <c r="A20" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="76" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -6144,7 +5723,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -6155,29 +5734,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>183</v>
+      <c r="A1" s="19" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
-        <v>277</v>
+      <c r="A2" s="19" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -6185,105 +5764,105 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>153</v>
+        <v>39</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>87</v>
+      <c r="A7" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>127</v>
+      <c r="A8" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="81" t="s">
-        <v>208</v>
-      </c>
-      <c r="B9" s="81" t="s">
-        <v>207</v>
+      <c r="A9" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>189</v>
+        <v>25</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>89</v>
+        <v>36</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>187</v>
+        <v>7</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>188</v>
+        <v>10</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="79" t="s">
-        <v>200</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>199</v>
+      <c r="A15" s="75" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -6291,15 +5870,15 @@
         <v>2</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -6307,16 +5886,16 @@
         <v>3</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="20"/>
+        <v>32</v>
+      </c>
+      <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -6324,263 +5903,196 @@
         <v>0</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="96" t="s">
-        <v>163</v>
-      </c>
-      <c r="B21" s="96" t="s">
-        <v>162</v>
+      <c r="A21" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="88" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>276</v>
+      <c r="A23" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="B24" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>230</v>
+      <c r="A24" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="B25" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="C25" s="20"/>
+      <c r="A25" s="88" t="s">
+        <v>248</v>
+      </c>
+      <c r="B25" s="88" t="s">
+        <v>247</v>
+      </c>
+      <c r="C25" s="19"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C26" s="20"/>
+      <c r="A26" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="20"/>
+        <v>144</v>
+      </c>
+      <c r="C27" s="19"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="C28" s="20"/>
+        <v>42</v>
+      </c>
+      <c r="C28" s="19"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="20"/>
+      <c r="A29" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="19"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="20"/>
+      <c r="A30" s="95" t="s">
+        <v>232</v>
+      </c>
+      <c r="B30" s="95" t="s">
+        <v>233</v>
+      </c>
+      <c r="C30" s="19"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="92"/>
+      <c r="B32" s="92"/>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="93" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>160</v>
       </c>
-      <c r="B31" s="27" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="20"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="20"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="103" t="s">
-        <v>274</v>
-      </c>
-      <c r="B34" s="103" t="s">
-        <v>275</v>
-      </c>
-      <c r="C34" s="20"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="100"/>
-      <c r="B36" s="100"/>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="101" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="76" t="s">
-        <v>264</v>
-      </c>
-      <c r="B39" s="88" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="B40" s="87" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="93" t="s">
-        <v>216</v>
-      </c>
-      <c r="B41" s="87" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>129</v>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>60</v>
+      <c r="A49" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="33" t="s">
-        <v>65</v>
+      <c r="A50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="33" t="s">
-        <v>171</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>267</v>
+      <c r="A54" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/AccBase_Specification_KZ-RU.xlsx
+++ b/AccBase_Specification_KZ-RU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="7" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="256">
   <si>
     <t>Договор</t>
   </si>
@@ -284,9 +284,6 @@
     <t xml:space="preserve">  - сумма и т.д. (можно диапазон суммы "от" и "до")</t>
   </si>
   <si>
-    <t>Единица измерения</t>
-  </si>
-  <si>
     <t>Движение бюджета</t>
   </si>
   <si>
@@ -816,6 +813,21 @@
   </si>
   <si>
     <t>строка</t>
+  </si>
+  <si>
+    <t>UnitDataId</t>
+  </si>
+  <si>
+    <t>Родитель</t>
+  </si>
+  <si>
+    <t>UnitData</t>
+  </si>
+  <si>
+    <t>Данные ед изм</t>
+  </si>
+  <si>
+    <t>ParentId</t>
   </si>
 </sst>
 </file>
@@ -1560,7 +1572,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -1576,12 +1588,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="94" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -1600,9 +1612,11 @@
   <sheetPr codeName="Лист32">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1613,17 +1627,17 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="68" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="68" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="54" t="s">
         <v>11</v>
       </c>
@@ -1631,7 +1645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="s">
         <v>15</v>
       </c>
@@ -1639,7 +1653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="56" t="s">
         <v>13</v>
       </c>
@@ -1647,7 +1661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="57" t="s">
         <v>4</v>
       </c>
@@ -1655,104 +1669,96 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="58" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B8" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="15" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="58" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="59" t="s">
+      <c r="B9" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B10" s="46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="77" t="s">
-        <v>185</v>
-      </c>
-      <c r="B10" s="77" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="77" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="58" t="s">
+      <c r="B11" s="77" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B12" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="59" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B13" s="46" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="60" t="s">
+    <row r="14" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B14" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="61" t="s">
+    <row r="15" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B15" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="30"/>
-    </row>
-    <row r="15" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="62" t="s">
+      <c r="C15" s="30"/>
+    </row>
+    <row r="16" spans="1:3" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B16" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="30"/>
-    </row>
-    <row r="16" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="62" t="s">
+      <c r="C16" s="30"/>
+    </row>
+    <row r="17" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B17" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-    </row>
-    <row r="17" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>197</v>
-      </c>
+      <c r="C17" s="19"/>
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
@@ -1760,52 +1766,68 @@
       <c r="H17" s="30"/>
     </row>
     <row r="18" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="B18" s="49" t="s">
+      <c r="A18" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="C18" s="19"/>
+      <c r="B18" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>196</v>
+      </c>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
     </row>
-    <row r="19" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="58" t="s">
+    <row r="19" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+    </row>
+    <row r="20" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B20" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="30"/>
-    </row>
-    <row r="20" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="63" t="s">
+      <c r="C20" s="30"/>
+    </row>
+    <row r="21" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B21" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="30"/>
-    </row>
-    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="B21" s="76" t="s">
+      <c r="C21" s="30"/>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="76" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="64"/>
-      <c r="B22" s="4"/>
+      <c r="B22" s="76" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="23" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="67"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="67"/>
+      <c r="B24" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -1820,9 +1842,11 @@
   <sheetPr codeName="Лист17">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I20"/>
+  <dimension ref="A2:I21"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1863,129 +1887,122 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>39</v>
+      <c r="A6" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="77" t="s">
-        <v>185</v>
-      </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="77" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>25</v>
+      <c r="B9" s="77" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C11" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B12" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B13" s="17" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B15" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="19"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="19"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B18" s="15" t="s">
         <v>42</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>43</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -1996,16 +2013,31 @@
       <c r="I18" s="19"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="B19" s="76" t="s">
+      <c r="A19" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="76" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
+      <c r="B20" s="76" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2020,9 +2052,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C21"/>
+  <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2034,15 +2068,15 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -2058,140 +2092,148 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>39</v>
+      <c r="A6" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="66" t="s">
+      <c r="B8" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B9" s="66" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="77" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" s="77" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="77" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="B10" s="77" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B11" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B12" s="15" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B14" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B15" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="19"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
+      <c r="C15" s="19"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B16" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="19"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="19"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B19" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B20" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="B20" s="76" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="76" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="B21" s="76" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -2204,9 +2246,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2216,7 +2260,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2229,7 +2273,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -2237,7 +2281,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -2253,207 +2297,215 @@
         <v>4</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>39</v>
+      <c r="A7" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>76</v>
+        <v>40</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B10" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="77" t="s">
-        <v>185</v>
-      </c>
-      <c r="B10" s="77" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="77" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="B11" s="77" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B12" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="51" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B13" s="51" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B15" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="28" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B16" s="28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B17" s="35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="C17" s="19" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B20" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B21" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="B21" s="76" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="76" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="B22" s="76" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="82" t="s">
-        <v>225</v>
-      </c>
+      <c r="A24" s="24"/>
       <c r="B24" s="24"/>
     </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="89" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="82" t="s">
         <v>224</v>
       </c>
-      <c r="B25" s="89" t="s">
-        <v>186</v>
-      </c>
-      <c r="C25" s="90" t="s">
+      <c r="B25" s="24"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="89" t="s">
         <v>223</v>
       </c>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="90">
-        <v>3</v>
-      </c>
-      <c r="B26" s="90" t="s">
-        <v>161</v>
+      <c r="B26" s="89" t="s">
+        <v>185</v>
       </c>
       <c r="C26" s="90" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D26" s="91"/>
       <c r="E26" s="91"/>
       <c r="F26" s="91"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="90">
+        <v>3</v>
+      </c>
+      <c r="B27" s="90" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="90" t="s">
+        <v>220</v>
+      </c>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="82" t="s">
-        <v>226</v>
-      </c>
+      <c r="A28" s="24"/>
       <c r="B28" s="24"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="86" t="s">
-        <v>224</v>
-      </c>
-      <c r="B29" s="89" t="s">
-        <v>186</v>
-      </c>
-      <c r="C29" s="90" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="82" t="s">
+        <v>225</v>
+      </c>
+      <c r="B29" s="24"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="86" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="87" t="s">
-        <v>218</v>
-      </c>
-      <c r="B30" s="90" t="s">
+      <c r="B30" s="89" t="s">
+        <v>185</v>
+      </c>
+      <c r="C30" s="90" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="87" t="s">
+        <v>217</v>
+      </c>
+      <c r="B31" s="90" t="s">
+        <v>192</v>
+      </c>
+      <c r="C31" s="90" t="s">
         <v>193</v>
-      </c>
-      <c r="C30" s="90" t="s">
-        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2468,9 +2520,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I26"/>
+  <dimension ref="A2:I27"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2512,173 +2566,181 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>39</v>
+      <c r="A6" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="77" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" s="77" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="77" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="B10" s="77" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="19"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="C11" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="19"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="19"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>163</v>
-      </c>
+      <c r="C12" s="41"/>
       <c r="D12" s="19"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="19"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B14" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
+      <c r="C14" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B15" s="28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B16" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B19" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="19"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+      <c r="C19" s="19"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B20" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="B20" s="76" t="s">
+      <c r="C20" s="19"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="76" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>54</v>
-      </c>
+      <c r="B21" s="76" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>151</v>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2693,9 +2755,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2747,182 +2811,190 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>76</v>
+      <c r="A7" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B9" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="77" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" s="77" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="77" t="s">
         <v>184</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="B10" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B11" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="38"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>7</v>
-      </c>
+      <c r="C12" s="38"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B15" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B16" s="35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>174</v>
-      </c>
-    </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="B17" s="49" t="s">
+      <c r="A17" s="48" t="s">
         <v>171</v>
       </c>
+      <c r="B17" s="48" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B19" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B20" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="B20" s="76" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="76" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="B21" s="76" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" s="82" t="s">
         <v>188</v>
       </c>
-      <c r="B23" s="82" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" s="85" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="83" t="s">
+        <v>218</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="72"/>
+      <c r="B27" s="82"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="72" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="84" t="s">
-        <v>172</v>
-      </c>
-      <c r="B24" s="85" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="83" t="s">
+      <c r="B28" s="82" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="B29" s="85" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="83" t="s">
         <v>219</v>
       </c>
-      <c r="B25" s="47" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="72"/>
-      <c r="B26" s="82"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="72" t="s">
-        <v>190</v>
-      </c>
-      <c r="B27" s="82" t="s">
+      <c r="B30" s="47" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="84" t="s">
-        <v>172</v>
-      </c>
-      <c r="B28" s="85" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="83" t="s">
-        <v>220</v>
-      </c>
-      <c r="B29" s="47" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2937,9 +3009,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2985,101 +3059,94 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>39</v>
+      <c r="A6" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
+      <c r="B8" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B9" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="77" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" s="77" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="77" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="B10" s="77" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B11" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="51" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B12" s="51" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B15" s="35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-    </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="B16" s="49" t="s">
+      <c r="A16" s="48" t="s">
         <v>171</v>
       </c>
+      <c r="B16" s="48" t="s">
+        <v>173</v>
+      </c>
       <c r="C16" s="19" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3087,24 +3154,26 @@
       <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="20"/>
+      <c r="A17" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>210</v>
+      </c>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>43</v>
+      <c r="A18" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -3113,16 +3182,29 @@
       <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="B19" s="76" t="s">
+      <c r="A19" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="76" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="B20" s="76" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3137,9 +3219,11 @@
   <sheetPr codeName="Лист38">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3185,155 +3269,163 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>39</v>
+      <c r="A6" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
+      <c r="B8" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B9" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="77" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" s="77" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="77" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="B10" s="77" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B11" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>36</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B13" s="12" t="s">
         <v>7</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="39" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B15" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>204</v>
-      </c>
+      <c r="C15" s="34"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="B16" s="49" t="s">
+      <c r="A16" s="48" t="s">
         <v>171</v>
       </c>
+      <c r="B16" s="48" t="s">
+        <v>173</v>
+      </c>
       <c r="C16" s="34" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="B17" s="37" t="s">
+    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="37" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="B18" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B19" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="19"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+      <c r="C19" s="19"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B20" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="B20" s="76" t="s">
+      <c r="C20" s="19"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="76" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="B21" s="76" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -3348,9 +3440,11 @@
   <sheetPr codeName="Лист43">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D27"/>
+  <dimension ref="A2:D28"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3392,170 +3486,178 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>39</v>
+      <c r="A6" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="B8" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B9" s="29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="77" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" s="77" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="77" t="s">
         <v>184</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="B10" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B11" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="52" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B12" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C12" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="36"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="D12" s="36"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B13" s="15" t="s">
         <v>7</v>
-      </c>
-      <c r="C12" s="19"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>10</v>
       </c>
       <c r="C13" s="19"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="19"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B15" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="19"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
+      <c r="C15" s="19"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B16" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="19"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>196</v>
-      </c>
+      <c r="C16" s="19"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="B17" s="49" t="s">
+      <c r="A17" s="48" t="s">
         <v>171</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>173</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B19" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="19"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+      <c r="C19" s="19"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B20" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="B20" s="76" t="s">
+      <c r="C20" s="19"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="76" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
-        <v>50</v>
-      </c>
+      <c r="B21" s="76" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="20"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C25" s="20"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="19"/>
+      <c r="C26" s="20"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="19"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3572,9 +3674,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C28"/>
+  <dimension ref="A2:C29"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3582,23 +3684,23 @@
     <col min="2" max="2" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>74</v>
+        <v>254</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -3606,192 +3708,200 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B7" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="15" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="B8" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B9" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="77" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" s="77" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="77" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="B10" s="77" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B11" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B12" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B15" s="32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B16" s="35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="19" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="88" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="88" t="s">
+        <v>247</v>
+      </c>
+      <c r="B19" s="88" t="s">
+        <v>246</v>
+      </c>
+      <c r="C19" s="19"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="B18" s="88" t="s">
-        <v>247</v>
-      </c>
-      <c r="C18" s="19"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="48" t="s">
+      <c r="B20" s="48" t="s">
         <v>249</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="C20" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="C19" s="31" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="19"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B22" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="19"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="C22" s="19"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B23" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="19"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="95" t="s">
+      <c r="C23" s="19"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="95" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24" s="95" t="s">
         <v>232</v>
       </c>
-      <c r="B23" s="95" t="s">
-        <v>233</v>
-      </c>
-      <c r="C23" s="19"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="B24" s="25" t="s">
+      <c r="C24" s="19"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="25" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="31" t="s">
+      <c r="B25" s="25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="31" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -3806,7 +3916,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D20"/>
+  <dimension ref="A2:D21"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
@@ -3822,15 +3932,15 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -3846,126 +3956,134 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>39</v>
+      <c r="A6" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
+      <c r="B8" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B9" s="46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="77" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" s="77" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="77" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="B10" s="77" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B11" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B12" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B14" s="12" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B16" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="19"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>171</v>
-      </c>
       <c r="D16" s="19"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="19"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B18" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B19" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="B19" s="76" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="76" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="B20" s="76" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -3978,11 +4096,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G21"/>
+  <dimension ref="A2:G22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3998,15 +4114,15 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -4022,143 +4138,151 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B7" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="47" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="47" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="B8" s="47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B9" s="29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="77" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" s="77" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="77" t="s">
         <v>184</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="B10" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B11" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B12" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B13" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B14" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B15" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B16" s="35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="D17" s="19"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="D18" s="19"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B19" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B20" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="19"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="B20" s="76" t="s">
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="76" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="B21" s="76" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -4181,322 +4305,322 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>127</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="D10" s="19" t="s">
         <v>130</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>133</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="53" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A21" s="53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B22" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A23" s="53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B23" s="53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B24" s="53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B25" s="53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A26" s="53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B26" s="53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B27" s="53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B28" s="53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B29" s="53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A30" s="53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B30" s="53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B31" s="53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B32" s="53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B33" s="53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A34" s="53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B34" s="53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B35" s="53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B36" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B37" s="53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B38" s="53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B39" s="53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B40" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" s="53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B41" s="53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A42" s="53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B42" s="53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A43" s="53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B43" s="53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A44" s="53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B44" s="53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -4509,9 +4633,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:B19"/>
+  <dimension ref="A2:B20"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4526,15 +4652,15 @@
         <v>11</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -4550,116 +4676,124 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B7" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="25" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
+      <c r="B8" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B9" s="28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="79" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" s="79" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="79" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="B10" s="79" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B11" s="18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B12" s="45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="80" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="80" t="s">
+      <c r="B13" s="80" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B14" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="81" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B15" s="81" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B18" s="25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="B18" s="76" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="76" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+      <c r="B19" s="76" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -4672,9 +4806,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4685,7 +4821,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4693,15 +4829,15 @@
         <v>11</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -4717,278 +4853,286 @@
         <v>4</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B7" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="19"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>76</v>
-      </c>
+      <c r="C7" s="19"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="19"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="77" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" s="77" t="s">
+      <c r="C9" s="19"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="77" t="s">
         <v>184</v>
       </c>
-      <c r="C9" s="19"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="B10" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="19"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B11" s="25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="51" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B12" s="51" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B13" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C13" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="19" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="75" t="s">
-        <v>177</v>
-      </c>
-      <c r="B15" s="48" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="75" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
+      <c r="B16" s="48" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B17" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="19"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="70" t="s">
+      <c r="C17" s="19"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="70" t="s">
+      <c r="B18" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="19"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="31"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B20" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="31"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="74" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="73" t="s">
-        <v>141</v>
-      </c>
       <c r="C20" s="31"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="73" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="31"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="69" t="s">
+      <c r="B22" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="31"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="B22" s="71" t="s">
+      <c r="C22" s="31"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="C22" s="31"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="C23" s="19"/>
+      <c r="B23" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="31"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="B24" s="49" t="s">
+      <c r="A24" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="C24" s="31"/>
+      <c r="B24" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="19"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="88" t="s">
+      <c r="A25" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" s="31"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="88" t="s">
+        <v>247</v>
+      </c>
+      <c r="B26" s="88" t="s">
+        <v>246</v>
+      </c>
+      <c r="C26" s="31"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="B25" s="88" t="s">
-        <v>247</v>
-      </c>
-      <c r="C25" s="31"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="48" t="s">
+      <c r="B27" s="48" t="s">
         <v>249</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="C27" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="C26" s="31" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="25" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="C27" s="31"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="19"/>
+      <c r="C28" s="31"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="19"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B30" s="25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="95" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="95" t="s">
+        <v>231</v>
+      </c>
+      <c r="B31" s="95" t="s">
         <v>232</v>
       </c>
-      <c r="B30" s="95" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="B31" s="25" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="25" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="31" t="s">
+      <c r="B32" s="25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="31" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="31"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="31"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="31"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="31" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="31"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -5003,9 +5147,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C20"/>
+  <dimension ref="A2:C21"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5017,15 +5163,15 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -5041,130 +5187,138 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>39</v>
+      <c r="A6" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="66" t="s">
+      <c r="B8" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B9" s="66" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B10" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="46" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B11" s="46" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B13" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B14" s="35" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B15" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="19" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B18" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B19" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="B19" s="76" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="76" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="B20" s="76" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.19685039370078741" footer="0"/>
@@ -5174,9 +5328,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C20"/>
+  <dimension ref="A2:C21"/>
   <sheetViews>
-    <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0"/>
+    <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5188,15 +5344,15 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -5212,130 +5368,138 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>39</v>
+      <c r="A6" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="66" t="s">
+      <c r="B8" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B9" s="66" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B10" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="46" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B11" s="46" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B13" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B14" s="35" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B15" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="19" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B18" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B19" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="B19" s="76" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="76" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="B20" s="76" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5347,9 +5511,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C21"/>
+  <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5357,23 +5523,23 @@
     <col min="2" max="2" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>179</v>
-      </c>
       <c r="B3" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -5381,146 +5547,154 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B7" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="15" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="66" t="s">
+      <c r="B8" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B9" s="66" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="77" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" s="77" t="s">
+    <row r="10" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="77" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="B10" s="77" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B11" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="46" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B12" s="46" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B13" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B14" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B15" s="35" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B16" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="19" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B19" s="15" t="s">
         <v>42</v>
-      </c>
-      <c r="C18" s="19"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>43</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="19"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B21" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="20"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="C21" s="20"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.31496062992125984" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -5533,9 +5707,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5552,16 +5728,16 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -5577,140 +5753,148 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>39</v>
+      <c r="A6" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
+      <c r="B8" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B9" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="77" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" s="77" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="77" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="B10" s="77" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B11" s="16" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B13" s="17" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B15" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B16" s="35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>217</v>
-      </c>
-    </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="B17" s="49" t="s">
+      <c r="A17" s="48" t="s">
         <v>171</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>173</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B19" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="19"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+      <c r="D19" s="19"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B20" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="19"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="B20" s="76" t="s">
+      <c r="D20" s="19"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="76" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="B21" s="76" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -5723,9 +5907,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5735,20 +5921,20 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>236</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -5764,335 +5950,343 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="47" t="s">
+      <c r="C7" s="19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="47" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="B8" s="47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B9" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="77" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" s="77" t="s">
+      <c r="C9" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="77" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>168</v>
+      <c r="B10" s="77" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>78</v>
+        <v>25</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>166</v>
+        <v>36</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="C14" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B15" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="75" t="s">
-        <v>177</v>
-      </c>
-      <c r="B15" s="48" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="75" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>27</v>
+      <c r="B16" s="48" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B18" s="15" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="19"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+      <c r="B20" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B21" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="B21" s="88" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="88" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
+      <c r="B22" s="88" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B23" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>234</v>
-      </c>
-    </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="B24" s="49" t="s">
+      <c r="A24" s="48" t="s">
         <v>171</v>
       </c>
+      <c r="B24" s="48" t="s">
+        <v>173</v>
+      </c>
       <c r="C24" s="19" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="88" t="s">
+      <c r="A25" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="88" t="s">
+        <v>247</v>
+      </c>
+      <c r="B26" s="88" t="s">
+        <v>246</v>
+      </c>
+      <c r="C26" s="19"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="B25" s="88" t="s">
-        <v>247</v>
-      </c>
-      <c r="C25" s="19"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="48" t="s">
+      <c r="B27" s="48" t="s">
         <v>249</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="C27" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="C26" s="31" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C27" s="19"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
+      <c r="C28" s="19"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B29" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="19"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="16" t="s">
+      <c r="C29" s="19"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B30" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="19"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="95" t="s">
+      <c r="C30" s="19"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="95" t="s">
+        <v>231</v>
+      </c>
+      <c r="B31" s="95" t="s">
         <v>232</v>
       </c>
-      <c r="B30" s="95" t="s">
-        <v>233</v>
-      </c>
-      <c r="C30" s="19"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="B31" s="25" t="s">
+      <c r="C31" s="19"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="25" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="92"/>
-      <c r="B32" s="92"/>
-    </row>
-    <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="93" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="B32" s="25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="92"/>
+      <c r="B33" s="92"/>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="93" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="31" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="31" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="31" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="19" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="19" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>228</v>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/AccBase_Specification_KZ-RU.xlsx
+++ b/AccBase_Specification_KZ-RU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="7" activeTab="18"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="8" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="252">
   <si>
     <t>Договор</t>
   </si>
@@ -167,21 +167,6 @@
     <t>Основной</t>
   </si>
   <si>
-    <t>Detail1</t>
-  </si>
-  <si>
-    <t>Detail2</t>
-  </si>
-  <si>
-    <t>Подробности1</t>
-  </si>
-  <si>
-    <t>Подробности2</t>
-  </si>
-  <si>
-    <t>Подробности 2</t>
-  </si>
-  <si>
     <t>Учетная основа (AccountingBase)</t>
   </si>
   <si>
@@ -210,9 +195,6 @@
   </si>
   <si>
     <t xml:space="preserve">  - производственная калькуляция в т.ч. План выполнения произ. Заказа с материалами и работами</t>
-  </si>
-  <si>
-    <t>Подробности 1</t>
   </si>
   <si>
     <t>Компания</t>
@@ -828,6 +810,12 @@
   </si>
   <si>
     <t>ParentId</t>
+  </si>
+  <si>
+    <t>Примечание</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1061,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1111,9 +1099,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1191,7 +1176,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1572,7 +1556,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -1580,20 +1564,20 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
+      <c r="A4" s="23"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="94" t="s">
-        <v>229</v>
+      <c r="A5" s="92" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -1612,15 +1596,15 @@
   <sheetPr codeName="Лист32">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+      <selection activeCell="A20" sqref="A20:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" style="65" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" style="63" customWidth="1"/>
     <col min="2" max="2" width="42.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
     <col min="4" max="14" width="6.7109375" style="1" customWidth="1"/>
@@ -1628,17 +1612,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
-        <v>118</v>
+      <c r="A1" s="66" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="68" t="s">
-        <v>226</v>
+      <c r="A2" s="66" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="53" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -1646,7 +1630,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="54" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="14" t="s">
@@ -1654,7 +1638,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="55" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1662,7 +1646,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="56" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -1671,14 +1655,14 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="57" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -1686,31 +1670,31 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="58" t="s">
-        <v>76</v>
+      <c r="A9" s="57" t="s">
+        <v>70</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="45" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="77" t="s">
-        <v>184</v>
-      </c>
-      <c r="B11" s="77" t="s">
-        <v>183</v>
+      <c r="A11" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" s="75" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="57" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -1718,15 +1702,15 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="45" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="59" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -1734,100 +1718,91 @@
       </c>
     </row>
     <row r="15" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="60" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="30"/>
-    </row>
-    <row r="16" spans="1:3" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="62" t="s">
+      <c r="C15" s="29"/>
+    </row>
+    <row r="16" spans="1:3" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="30"/>
-    </row>
-    <row r="17" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="62" t="s">
+      <c r="C16" s="29"/>
+    </row>
+    <row r="17" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="34" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="19"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-    </row>
-    <row r="18" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="B18" s="48" t="s">
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+    </row>
+    <row r="18" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+    </row>
+    <row r="19" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+    </row>
+    <row r="20" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="29"/>
+    </row>
+    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-    </row>
-    <row r="19" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-    </row>
-    <row r="20" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="30"/>
-    </row>
-    <row r="21" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="30"/>
-    </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="B22" s="76" t="s">
-        <v>179</v>
-      </c>
+    </row>
+    <row r="22" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="62"/>
+      <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="64"/>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="67"/>
-      <c r="B24" s="24"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -1842,10 +1817,10 @@
   <sheetPr codeName="Лист17">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I21"/>
+  <dimension ref="A2:I20"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1888,10 +1863,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1904,18 +1879,18 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="77" t="s">
-        <v>184</v>
-      </c>
-      <c r="B9" s="77" t="s">
-        <v>183</v>
+      <c r="A9" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1934,7 +1909,7 @@
         <v>36</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -1959,50 +1934,50 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="34" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="19"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>173</v>
+      <c r="A16" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>167</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>170</v>
+      <c r="A17" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>164</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>42</v>
+        <v>251</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -2013,31 +1988,16 @@
       <c r="I18" s="19"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
+      <c r="A19" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="B20" s="76" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2052,10 +2012,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C22"/>
+  <dimension ref="A2:C21"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="A19" sqref="A19:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2068,15 +2028,15 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -2092,15 +2052,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2113,26 +2073,26 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="66" t="s">
+      <c r="A9" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="64" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="77" t="s">
-        <v>184</v>
-      </c>
-      <c r="B10" s="77" t="s">
-        <v>183</v>
+      <c r="A10" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2168,72 +2128,64 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="19"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="19"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>173</v>
+      <c r="A17" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>167</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>170</v>
+      <c r="A18" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>164</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>42</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>43</v>
+      <c r="A20" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="74" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="B21" s="76" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -2246,10 +2198,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+      <selection activeCell="A20" sqref="A20:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2260,12 +2212,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -2273,7 +2225,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -2281,7 +2233,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -2297,15 +2249,15 @@
         <v>4</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -2318,10 +2270,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -2333,11 +2285,11 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="77" t="s">
-        <v>184</v>
-      </c>
-      <c r="B11" s="77" t="s">
-        <v>183</v>
+      <c r="A11" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" s="75" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -2349,10 +2301,10 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="50" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2373,139 +2325,131 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="34" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>173</v>
+      <c r="A18" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>167</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>170</v>
+      <c r="A19" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>164</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>42</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>43</v>
+      <c r="A21" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" s="74" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="B22" s="76" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="80" t="s">
+        <v>218</v>
+      </c>
+      <c r="B24" s="23"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="87" t="s">
+        <v>217</v>
+      </c>
+      <c r="B25" s="87" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="82" t="s">
-        <v>224</v>
-      </c>
-      <c r="B25" s="24"/>
+      <c r="C25" s="88" t="s">
+        <v>216</v>
+      </c>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="89" t="s">
-        <v>223</v>
-      </c>
-      <c r="B26" s="89" t="s">
-        <v>185</v>
-      </c>
-      <c r="C26" s="90" t="s">
-        <v>222</v>
-      </c>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="90">
+      <c r="A26" s="88">
         <v>3</v>
       </c>
-      <c r="B27" s="90" t="s">
-        <v>160</v>
-      </c>
-      <c r="C27" s="90" t="s">
-        <v>220</v>
-      </c>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
+      <c r="B26" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" s="88" t="s">
+        <v>214</v>
+      </c>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="82" t="s">
-        <v>225</v>
-      </c>
-      <c r="B29" s="24"/>
+      <c r="A28" s="80" t="s">
+        <v>219</v>
+      </c>
+      <c r="B28" s="23"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="84" t="s">
+        <v>217</v>
+      </c>
+      <c r="B29" s="87" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" s="88" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="86" t="s">
-        <v>223</v>
-      </c>
-      <c r="B30" s="89" t="s">
-        <v>185</v>
-      </c>
-      <c r="C30" s="90" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="87" t="s">
-        <v>217</v>
-      </c>
-      <c r="B31" s="90" t="s">
-        <v>192</v>
-      </c>
-      <c r="C31" s="90" t="s">
-        <v>193</v>
+      <c r="A30" s="85" t="s">
+        <v>211</v>
+      </c>
+      <c r="B30" s="88" t="s">
+        <v>186</v>
+      </c>
+      <c r="C30" s="88" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2520,10 +2464,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I27"/>
+  <dimension ref="A2:I26"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="A19" sqref="A19:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2567,10 +2511,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2583,10 +2527,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2597,15 +2541,15 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="77" t="s">
-        <v>184</v>
-      </c>
-      <c r="B10" s="77" t="s">
-        <v>183</v>
+      <c r="A10" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2616,7 +2560,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D11" s="19"/>
     </row>
@@ -2627,7 +2571,7 @@
       <c r="B12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="41"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="19"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2638,7 +2582,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D13" s="19"/>
     </row>
@@ -2650,22 +2594,22 @@
         <v>10</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="19"/>
@@ -2677,70 +2621,61 @@
       <c r="I16" s="19"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>173</v>
+      <c r="A17" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>167</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>170</v>
+      <c r="A18" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>164</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>42</v>
+        <v>251</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="19"/>
+      <c r="A20" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="74" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="B21" s="76" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>150</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2755,10 +2690,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A19" sqref="A19:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2812,18 +2747,18 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2835,11 +2770,11 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="77" t="s">
-        <v>184</v>
-      </c>
-      <c r="B10" s="77" t="s">
-        <v>183</v>
+      <c r="A10" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>177</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -2863,7 +2798,7 @@
       <c r="B12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="38"/>
+      <c r="C12" s="37"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
@@ -2890,111 +2825,103 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="B17" s="48" t="s">
+      <c r="A17" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="74" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="76" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="70" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" s="80" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" s="83" t="s">
         <v>180</v>
       </c>
-      <c r="B21" s="76" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="72" t="s">
-        <v>187</v>
-      </c>
-      <c r="B24" s="82" t="s">
-        <v>188</v>
-      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="B25" s="85" t="s">
-        <v>186</v>
+      <c r="A25" s="81" t="s">
+        <v>212</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="83" t="s">
-        <v>218</v>
-      </c>
-      <c r="B26" s="47" t="s">
-        <v>221</v>
-      </c>
+      <c r="A26" s="70"/>
+      <c r="B26" s="80"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="72"/>
-      <c r="B27" s="82"/>
+      <c r="A27" s="70" t="s">
+        <v>183</v>
+      </c>
+      <c r="B27" s="80" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="72" t="s">
-        <v>189</v>
-      </c>
-      <c r="B28" s="82" t="s">
-        <v>190</v>
+      <c r="A28" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" s="83" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="B29" s="85" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="83" t="s">
-        <v>219</v>
-      </c>
-      <c r="B30" s="47" t="s">
-        <v>191</v>
+      <c r="A29" s="81" t="s">
+        <v>213</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3009,10 +2936,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3023,7 +2950,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -3060,10 +2987,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3076,14 +3003,14 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="49" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -3091,11 +3018,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="77" t="s">
-        <v>184</v>
-      </c>
-      <c r="B10" s="77" t="s">
-        <v>183</v>
+      <c r="A10" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3107,10 +3034,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="50" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3131,22 +3058,22 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>173</v>
+      <c r="A16" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>167</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3154,14 +3081,14 @@
       <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>170</v>
+      <c r="A17" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>164</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
@@ -3170,10 +3097,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>42</v>
+        <v>251</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -3182,29 +3109,16 @@
       <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
+      <c r="A19" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="B20" s="76" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3219,15 +3133,15 @@
   <sheetPr codeName="Лист38">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A19" sqref="A19:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="6" max="6" width="20.140625" customWidth="1"/>
@@ -3270,10 +3184,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3286,14 +3200,14 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="49" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -3301,11 +3215,11 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="77" t="s">
-        <v>184</v>
-      </c>
-      <c r="B10" s="77" t="s">
-        <v>183</v>
+      <c r="A10" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3338,7 +3252,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -3349,83 +3263,74 @@
         <v>10</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="34"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>203</v>
+      <c r="A16" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>197</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>204</v>
+      <c r="A17" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>198</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>136</v>
+      <c r="A18" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>42</v>
+        <v>251</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="19"/>
+      <c r="A20" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="74" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="B21" s="76" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -3440,10 +3345,10 @@
   <sheetPr codeName="Лист43">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D28"/>
+  <dimension ref="A2:D27"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A19" sqref="A19:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3487,10 +3392,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3503,29 +3408,29 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="77" t="s">
-        <v>184</v>
-      </c>
-      <c r="B10" s="77" t="s">
-        <v>183</v>
+      <c r="A10" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>177</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3537,16 +3442,16 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="36"/>
+      <c r="C12" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="35"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
@@ -3576,89 +3481,80 @@
       <c r="C15" s="19"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="19"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>173</v>
+      <c r="A17" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>167</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>170</v>
+      <c r="A18" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>164</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="C19" s="19"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="74" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="20"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="20"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="19"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="22" t="s">
         <v>44</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="19"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="B21" s="76" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="20"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C26" s="20"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="19"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -3674,9 +3570,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C29"/>
+  <dimension ref="A2:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3689,15 +3587,15 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -3713,15 +3611,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3734,10 +3632,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3749,11 +3647,11 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="77" t="s">
-        <v>184</v>
-      </c>
-      <c r="B10" s="77" t="s">
-        <v>183</v>
+      <c r="A10" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3789,61 +3687,61 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="31" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>173</v>
+      <c r="A17" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>167</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>170</v>
+      <c r="A18" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>164</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="88" t="s">
-        <v>247</v>
-      </c>
-      <c r="B19" s="88" t="s">
-        <v>246</v>
+      <c r="A19" s="86" t="s">
+        <v>241</v>
+      </c>
+      <c r="B19" s="86" t="s">
+        <v>240</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>250</v>
+      <c r="A20" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -3851,57 +3749,48 @@
         <v>1</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>42</v>
+        <v>251</v>
       </c>
       <c r="C22" s="19"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>43</v>
+      <c r="A23" s="93" t="s">
+        <v>225</v>
+      </c>
+      <c r="B23" s="93" t="s">
+        <v>226</v>
       </c>
       <c r="C23" s="19"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="95" t="s">
-        <v>231</v>
-      </c>
-      <c r="B24" s="95" t="s">
+      <c r="A24" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="C24" s="19"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="31" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>239</v>
+      <c r="A28" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -3916,9 +3805,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D21"/>
+  <dimension ref="A2:D20"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3932,15 +3823,15 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -3956,15 +3847,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3977,26 +3868,26 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="45" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="77" t="s">
-        <v>184</v>
-      </c>
-      <c r="B10" s="77" t="s">
-        <v>183</v>
+      <c r="A10" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4032,58 +3923,50 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="19"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>170</v>
+      <c r="A17" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>164</v>
       </c>
       <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>42</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>43</v>
+      <c r="A19" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="B20" s="76" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -4096,14 +3979,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G22"/>
+  <dimension ref="A2:G21"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
     <col min="3" max="3" width="26.140625" customWidth="1"/>
     <col min="4" max="4" width="41.5703125" customWidth="1"/>
     <col min="5" max="5" width="35.42578125" customWidth="1"/>
@@ -4114,15 +3999,15 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -4138,15 +4023,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4158,27 +4043,27 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>75</v>
+      <c r="A8" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="77" t="s">
-        <v>184</v>
-      </c>
-      <c r="B10" s="77" t="s">
-        <v>183</v>
+      <c r="A10" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>177</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
@@ -4224,65 +4109,56 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>173</v>
+      <c r="A17" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>167</v>
       </c>
       <c r="C17" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>170</v>
+      <c r="A18" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>164</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>42</v>
+        <v>251</v>
       </c>
       <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="19"/>
+      <c r="A20" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="74" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="B21" s="76" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -4305,322 +4181,322 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="19" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="19" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="19" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="19" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" s="19" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="19" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="53" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="53" t="s">
-        <v>114</v>
+      <c r="A14" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B23" s="52" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="53" t="s">
+    <row r="24" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B24" s="52" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="53" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="53" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="53" t="s">
+    <row r="25" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B26" s="52" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="53" t="s">
+    <row r="27" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B27" s="52" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="53" t="s">
+    <row r="28" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B28" s="52" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="53" t="s">
+    <row r="29" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B30" s="52" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="53" t="s">
+    <row r="31" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="53" t="s">
+      <c r="B31" s="52" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="53" t="s">
+    <row r="32" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B32" s="52" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="53" t="s">
+    <row r="33" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B33" s="52" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="53" t="s">
+    <row r="34" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B34" s="52" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="53" t="s">
+    <row r="35" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B35" s="52" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="53" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="53" t="s">
+    <row r="36" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B36" s="52" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="53" t="s">
+    <row r="37" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="B31" s="53" t="s">
+      <c r="B37" s="52" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="53" t="s">
+    <row r="38" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="53" t="s">
+      <c r="B38" s="52" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="53" t="s">
+    <row r="39" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A39" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="B39" s="52" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="53" t="s">
+    <row r="40" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="53" t="s">
+      <c r="B40" s="52" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="53" t="s">
+    <row r="41" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="B35" s="53" t="s">
+      <c r="B41" s="52" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="53" t="s">
+    <row r="42" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B42" s="52" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="53" t="s">
+    <row r="43" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="B37" s="53" t="s">
+      <c r="B43" s="52" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="53" t="s">
+    <row r="44" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="B38" s="53" t="s">
+      <c r="B44" s="52" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="B39" s="53" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="B40" s="53" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="B41" s="53" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="B42" s="53" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="B43" s="53" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="B44" s="53" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -4633,18 +4509,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:B20"/>
+  <dimension ref="A2:B19"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="78" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" style="78" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" style="78" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="78"/>
+    <col min="1" max="1" width="28.5703125" style="76" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" style="76" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" style="76" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="76"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
@@ -4652,15 +4528,15 @@
         <v>11</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -4676,15 +4552,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -4696,27 +4572,27 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>75</v>
+      <c r="A8" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="79" t="s">
-        <v>184</v>
-      </c>
-      <c r="B10" s="79" t="s">
-        <v>183</v>
+      <c r="A10" s="77" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="77" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -4728,18 +4604,18 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="44" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="78" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4752,48 +4628,40 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="79" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>42</v>
+      <c r="A17" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>43</v>
+      <c r="A18" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" s="74" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="B19" s="76" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -4806,10 +4674,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+    <sheetView topLeftCell="A10" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4820,8 +4688,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
-        <v>242</v>
+      <c r="A1" s="30" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4829,15 +4697,15 @@
         <v>11</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -4849,36 +4717,36 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>148</v>
+      <c r="B5" s="24" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="19"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -4891,248 +4759,240 @@
       <c r="C9" s="19"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="77" t="s">
-        <v>184</v>
-      </c>
-      <c r="B10" s="77" t="s">
-        <v>183</v>
+      <c r="A10" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>177</v>
       </c>
       <c r="C10" s="19"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="50" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="44" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="75" t="s">
-        <v>176</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>175</v>
+      <c r="A16" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="34" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="19"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="68" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="31"/>
+      <c r="C19" s="30"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="31"/>
+      <c r="C20" s="30"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="74" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="73" t="s">
+      <c r="A21" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="30"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="30"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="C21" s="31"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="31"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="71" t="s">
+      <c r="B23" s="69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="30"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="19"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="30"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="86" t="s">
+        <v>241</v>
+      </c>
+      <c r="B26" s="86" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26" s="30"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="C28" s="30"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="C29" s="19"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="93" t="s">
+        <v>225</v>
+      </c>
+      <c r="B30" s="93" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="30"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="30"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" s="31"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="C24" s="19"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="C25" s="31"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="88" t="s">
-        <v>247</v>
-      </c>
-      <c r="B26" s="88" t="s">
-        <v>246</v>
-      </c>
-      <c r="C26" s="31"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="B27" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="C28" s="31"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="19"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="95" t="s">
-        <v>231</v>
-      </c>
-      <c r="B31" s="95" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="31" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="31"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="31" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="31"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>241</v>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -5147,10 +5007,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C21"/>
+  <dimension ref="A2:C20"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5163,15 +5023,15 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -5187,15 +5047,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -5208,17 +5068,17 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="64" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5231,10 +5091,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="45" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5255,10 +5115,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="34" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5271,54 +5131,46 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>173</v>
+      <c r="A16" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>167</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>170</v>
+      <c r="A17" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>164</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>42</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>43</v>
+      <c r="A19" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="B20" s="76" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.19685039370078741" footer="0"/>
@@ -5328,10 +5180,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C21"/>
+  <dimension ref="A2:C20"/>
   <sheetViews>
     <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5344,15 +5196,15 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -5368,15 +5220,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -5389,17 +5241,17 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="64" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5412,10 +5264,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="45" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5436,10 +5288,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="34" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5452,54 +5304,46 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>173</v>
+      <c r="A16" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>167</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>170</v>
+      <c r="A17" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>164</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>42</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>43</v>
+      <c r="A19" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="B20" s="76" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5511,10 +5355,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C22"/>
+  <dimension ref="A2:C21"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="A19" sqref="A19:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5528,15 +5372,15 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -5552,15 +5396,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -5573,26 +5417,26 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="64" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="77" t="s">
-        <v>184</v>
-      </c>
-      <c r="B10" s="77" t="s">
-        <v>183</v>
+    <row r="10" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -5604,10 +5448,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="45" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5628,10 +5472,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5644,57 +5488,48 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>173</v>
+      <c r="A17" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>167</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>170</v>
+      <c r="A18" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>164</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>42</v>
+        <v>251</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="19"/>
+        <v>55</v>
+      </c>
+      <c r="C20" s="20"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="20"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.31496062992125984" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -5707,10 +5542,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="A19" sqref="A19:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5728,16 +5563,16 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -5753,15 +5588,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -5774,14 +5609,14 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="49" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -5789,11 +5624,11 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="77" t="s">
-        <v>184</v>
-      </c>
-      <c r="B10" s="77" t="s">
-        <v>183</v>
+      <c r="A10" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -5837,64 +5672,55 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>173</v>
+      <c r="A17" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>167</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>170</v>
+      <c r="A18" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>164</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>42</v>
+        <v>251</v>
       </c>
       <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="19"/>
+      <c r="A20" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="74" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="B21" s="76" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -5907,10 +5733,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+    <sheetView topLeftCell="A13" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5921,20 +5747,20 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -5950,15 +5776,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -5969,34 +5795,34 @@
         <v>39</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>75</v>
+      <c r="A8" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>115</v>
+      <c r="C9" s="29" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="77" t="s">
-        <v>184</v>
-      </c>
-      <c r="B10" s="77" t="s">
-        <v>183</v>
+      <c r="A10" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -6007,7 +5833,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -6017,8 +5843,8 @@
       <c r="B12" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="41" t="s">
-        <v>77</v>
+      <c r="C12" s="40" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -6029,7 +5855,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -6040,7 +5866,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -6052,11 +5878,11 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="75" t="s">
-        <v>176</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>175</v>
+      <c r="A16" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -6089,7 +5915,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -6101,11 +5927,11 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="88" t="s">
-        <v>146</v>
-      </c>
-      <c r="B22" s="88" t="s">
-        <v>145</v>
+      <c r="A22" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="86" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -6117,176 +5943,167 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>173</v>
+      <c r="A24" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>167</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>170</v>
+      <c r="A25" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>164</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="88" t="s">
-        <v>247</v>
-      </c>
-      <c r="B26" s="88" t="s">
-        <v>246</v>
+      <c r="A26" s="86" t="s">
+        <v>241</v>
+      </c>
+      <c r="B26" s="86" t="s">
+        <v>240</v>
       </c>
       <c r="C26" s="19"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="B27" s="48" t="s">
-        <v>249</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>250</v>
+      <c r="A27" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="43" t="s">
-        <v>67</v>
+      <c r="A28" s="42" t="s">
+        <v>61</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C28" s="19"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>42</v>
+        <v>251</v>
       </c>
       <c r="C29" s="19"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>43</v>
+      <c r="A30" s="93" t="s">
+        <v>225</v>
+      </c>
+      <c r="B30" s="93" t="s">
+        <v>226</v>
       </c>
       <c r="C30" s="19"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="95" t="s">
-        <v>231</v>
-      </c>
-      <c r="B31" s="95" t="s">
-        <v>232</v>
-      </c>
-      <c r="C31" s="19"/>
+      <c r="A31" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="92"/>
-      <c r="B33" s="92"/>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="93" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="90"/>
+      <c r="B32" s="90"/>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="91" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="19" t="s">
-        <v>72</v>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>227</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/AccBase_Specification_KZ-RU.xlsx
+++ b/AccBase_Specification_KZ-RU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="8" activeTab="18"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="7" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <sheet name="Country" sheetId="172" r:id="rId16"/>
     <sheet name="Account" sheetId="13" r:id="rId17"/>
     <sheet name="Asset" sheetId="48" r:id="rId18"/>
-    <sheet name="Unit" sheetId="91" r:id="rId19"/>
+    <sheet name="UnitData" sheetId="91" r:id="rId19"/>
     <sheet name="View" sheetId="462" r:id="rId20"/>
     <sheet name="_Enum" sheetId="480" r:id="rId21"/>
   </sheets>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="252">
   <si>
     <t>Договор</t>
   </si>
@@ -1061,7 +1061,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1236,6 +1236,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -3570,11 +3572,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C28"/>
+  <dimension ref="A2:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:B22"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3703,93 +3703,149 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="95" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="95" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" s="86" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="95" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="95" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="94" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="94" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B24" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C24" s="19" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="48" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B25" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C25" s="19" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="86" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="86" t="s">
         <v>241</v>
       </c>
-      <c r="B19" s="86" t="s">
+      <c r="B26" s="86" t="s">
         <v>240</v>
       </c>
-      <c r="C19" s="19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="47" t="s">
+      <c r="C26" s="19"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B27" s="47" t="s">
         <v>243</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C27" s="30" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B28" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C21" s="19"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
+      <c r="C28" s="19"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B29" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="C22" s="19"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="93" t="s">
+      <c r="C29" s="19"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="93" t="s">
         <v>225</v>
       </c>
-      <c r="B23" s="93" t="s">
+      <c r="B30" s="93" t="s">
         <v>226</v>
       </c>
-      <c r="C23" s="19"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
+      <c r="C30" s="19"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B31" s="24" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="30" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="30" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3981,9 +4037,7 @@
   </sheetPr>
   <dimension ref="A2:G21"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4674,10 +4728,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:B29"/>
+    <sheetView topLeftCell="A7" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4888,110 +4942,119 @@
       <c r="C23" s="30"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="94" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="30"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B25" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="C24" s="19"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="48" t="s">
+      <c r="C25" s="19"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B26" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="C25" s="30"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="86" t="s">
+      <c r="C26" s="30"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="86" t="s">
         <v>241</v>
       </c>
-      <c r="B26" s="86" t="s">
+      <c r="B27" s="86" t="s">
         <v>240</v>
       </c>
-      <c r="C26" s="30"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="47" t="s">
+      <c r="C27" s="30"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B28" s="47" t="s">
         <v>243</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C28" s="30" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="42" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B29" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="C28" s="30"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
+      <c r="C29" s="30"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B30" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="C29" s="19"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="93" t="s">
+      <c r="C30" s="19"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="93" t="s">
         <v>225</v>
       </c>
-      <c r="B30" s="93" t="s">
+      <c r="B31" s="93" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="24" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B32" s="24" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="30" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="30" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="30"/>
-    </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="30"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="30" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="30"/>
-    </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="30"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5733,10 +5796,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:B29"/>
+    <sheetView topLeftCell="A10" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5943,166 +6006,174 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="94" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="94" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B25" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C25" s="19" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="48" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B26" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C26" s="19" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="86" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="86" t="s">
         <v>241</v>
       </c>
-      <c r="B26" s="86" t="s">
+      <c r="B27" s="86" t="s">
         <v>240</v>
       </c>
-      <c r="C26" s="19"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="47" t="s">
+      <c r="C27" s="19"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B28" s="47" t="s">
         <v>243</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C28" s="30" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="42" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B29" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="C28" s="19"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
+      <c r="C29" s="19"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B30" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="C29" s="19"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="93" t="s">
+      <c r="C30" s="19"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="93" t="s">
         <v>225</v>
       </c>
-      <c r="B30" s="93" t="s">
+      <c r="B31" s="93" t="s">
         <v>226</v>
       </c>
-      <c r="C30" s="19"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="24" t="s">
+      <c r="C31" s="19"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B32" s="24" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="90"/>
-      <c r="B32" s="90"/>
-    </row>
-    <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="91" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="90"/>
+      <c r="B33" s="90"/>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="91" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="30" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="30" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="30" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="19" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="19" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>221</v>
       </c>
     </row>

--- a/AccBase_Specification_KZ-RU.xlsx
+++ b/AccBase_Specification_KZ-RU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="7" activeTab="18"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="252">
   <si>
     <t>Договор</t>
   </si>
@@ -164,9 +164,6 @@
     <t>ЛицоГде</t>
   </si>
   <si>
-    <t>Основной</t>
-  </si>
-  <si>
     <t>Учетная основа (AccountingBase)</t>
   </si>
   <si>
@@ -204,9 +201,6 @@
   </si>
   <si>
     <t xml:space="preserve">  - накопительное фактическое оказание услуг</t>
-  </si>
-  <si>
-    <t>MasterId</t>
   </si>
   <si>
     <t>ставить для прекративших деятельность</t>
@@ -452,12 +446,6 @@
     <t>Clear</t>
   </si>
   <si>
-    <t>SignKindId</t>
-  </si>
-  <si>
-    <t>Вид знака</t>
-  </si>
-  <si>
     <t>Заполнить, дозаполнить -если уже есть строки</t>
   </si>
   <si>
@@ -816,6 +804,18 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>Основание</t>
+  </si>
+  <si>
+    <t>Назначение</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Basis</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1061,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1238,6 +1238,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1558,7 +1560,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -1566,7 +1568,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -1574,12 +1576,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="92" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -1598,10 +1600,10 @@
   <sheetPr codeName="Лист32">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:B20"/>
+      <selection activeCell="A20" sqref="A20:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1615,12 +1617,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="66" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="66" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -1657,10 +1659,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1673,10 +1675,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="57" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1689,10 +1691,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="75" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B11" s="75" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1753,13 +1755,13 @@
     </row>
     <row r="18" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="47" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
@@ -1769,10 +1771,10 @@
     </row>
     <row r="19" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="48" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="29"/>
@@ -1781,30 +1783,58 @@
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
     </row>
-    <row r="20" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="B20" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+    </row>
+    <row r="21" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="86" t="s">
+        <v>249</v>
+      </c>
+      <c r="B21" s="86" t="s">
         <v>250</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="C20" s="29"/>
-    </row>
-    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="74" t="s">
-        <v>174</v>
-      </c>
-      <c r="B21" s="74" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="62"/>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="65"/>
-      <c r="B23" s="23"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+    </row>
+    <row r="22" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C22" s="29"/>
+    </row>
+    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="74" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="62"/>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="65"/>
+      <c r="B25" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -1819,10 +1849,10 @@
   <sheetPr codeName="Лист17">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I20"/>
+  <dimension ref="A2:I22"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B18"/>
+      <selection activeCell="A18" sqref="A18:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1865,10 +1895,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1881,18 +1911,18 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="75" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1911,7 +1941,7 @@
         <v>36</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -1954,57 +1984,75 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="47" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="48" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="B18" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C18" s="19"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="86" t="s">
+        <v>249</v>
+      </c>
+      <c r="B19" s="86" t="s">
         <v>250</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="74" t="s">
-        <v>174</v>
-      </c>
-      <c r="B19" s="74" t="s">
-        <v>173</v>
-      </c>
+      <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" s="74" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.15748031496062992" top="0.19685039370078741" bottom="0.19685039370078741" header="0.11811023622047245" footer="0"/>
-  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -2014,10 +2062,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C21"/>
+  <dimension ref="A2:C23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B19"/>
+    <sheetView topLeftCell="A4" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2030,15 +2078,15 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -2054,15 +2102,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2075,15 +2123,15 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="64" t="s">
         <v>21</v>
@@ -2091,10 +2139,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="75" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2149,45 +2197,63 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="47" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="48" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="B19" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C19" s="19"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="86" t="s">
+        <v>249</v>
+      </c>
+      <c r="B20" s="86" t="s">
         <v>250</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="74" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" s="74" t="s">
-        <v>173</v>
-      </c>
+      <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="74" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -2200,26 +2266,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:B20"/>
+      <selection activeCell="A20" sqref="A20:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" customWidth="1"/>
     <col min="2" max="2" width="44.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -2227,7 +2293,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -2235,7 +2301,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -2251,15 +2317,15 @@
         <v>4</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -2272,10 +2338,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -2288,10 +2354,10 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="75" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B11" s="75" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -2344,114 +2410,132 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="47" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="48" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="B20" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="19"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="86" t="s">
+        <v>249</v>
+      </c>
+      <c r="B21" s="86" t="s">
         <v>250</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="74" t="s">
-        <v>174</v>
-      </c>
-      <c r="B21" s="74" t="s">
-        <v>173</v>
-      </c>
+      <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="74" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="80" t="s">
-        <v>218</v>
-      </c>
-      <c r="B24" s="23"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="87" t="s">
-        <v>217</v>
-      </c>
-      <c r="B25" s="87" t="s">
-        <v>179</v>
-      </c>
-      <c r="C25" s="88" t="s">
-        <v>216</v>
-      </c>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="88">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="80" t="s">
+        <v>214</v>
+      </c>
+      <c r="B26" s="23"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="87" t="s">
+        <v>213</v>
+      </c>
+      <c r="B27" s="87" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="88" t="s">
+        <v>212</v>
+      </c>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="88">
         <v>3</v>
       </c>
-      <c r="B26" s="88" t="s">
-        <v>154</v>
-      </c>
-      <c r="C26" s="88" t="s">
-        <v>214</v>
-      </c>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="80" t="s">
-        <v>219</v>
-      </c>
-      <c r="B28" s="23"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="84" t="s">
-        <v>217</v>
-      </c>
-      <c r="B29" s="87" t="s">
-        <v>179</v>
-      </c>
-      <c r="C29" s="88" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="85" t="s">
-        <v>211</v>
-      </c>
-      <c r="B30" s="88" t="s">
-        <v>186</v>
-      </c>
-      <c r="C30" s="88" t="s">
-        <v>187</v>
+      <c r="B28" s="88" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="88" t="s">
+        <v>210</v>
+      </c>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="80" t="s">
+        <v>215</v>
+      </c>
+      <c r="B30" s="23"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="84" t="s">
+        <v>213</v>
+      </c>
+      <c r="B31" s="87" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" s="88" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="85" t="s">
+        <v>207</v>
+      </c>
+      <c r="B32" s="88" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32" s="88" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2466,10 +2550,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I26"/>
+  <dimension ref="A2:I28"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B19"/>
+      <selection activeCell="A19" sqref="A19:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2513,10 +2597,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2529,10 +2613,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2543,15 +2627,15 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="75" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2562,7 +2646,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D11" s="19"/>
     </row>
@@ -2584,7 +2668,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D13" s="19"/>
     </row>
@@ -2596,7 +2680,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2624,66 +2708,84 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="47" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="48" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="B19" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C19" s="19"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="86" t="s">
+        <v>249</v>
+      </c>
+      <c r="B20" s="86" t="s">
         <v>250</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="C19" s="19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="74" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" s="74" t="s">
-        <v>173</v>
-      </c>
+      <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="19"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="74" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>58</v>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>144</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2692,10 +2794,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B19"/>
+      <selection activeCell="A19" sqref="A19:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2749,18 +2851,18 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2773,10 +2875,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="75" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -2836,94 +2938,110 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="47" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="48" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="B19" s="95" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="86" t="s">
+        <v>249</v>
+      </c>
+      <c r="B20" s="86" t="s">
         <v>250</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="74" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" s="74" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="74" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="70" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25" s="80" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" s="83" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="70"/>
+      <c r="B28" s="80"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="70" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29" s="80" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" s="83" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="81" t="s">
+        <v>209</v>
+      </c>
+      <c r="B31" s="46" t="s">
         <v>181</v>
-      </c>
-      <c r="B23" s="80" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="82" t="s">
-        <v>165</v>
-      </c>
-      <c r="B24" s="83" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="81" t="s">
-        <v>212</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="70"/>
-      <c r="B26" s="80"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="70" t="s">
-        <v>183</v>
-      </c>
-      <c r="B27" s="80" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="82" t="s">
-        <v>165</v>
-      </c>
-      <c r="B28" s="83" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="81" t="s">
-        <v>213</v>
-      </c>
-      <c r="B29" s="46" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2938,21 +3056,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B18"/>
+      <selection activeCell="A18" sqref="A18:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.140625" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
     <col min="2" max="2" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
@@ -2989,10 +3107,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3005,10 +3123,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3021,10 +3139,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="75" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3069,13 +3187,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="47" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3084,13 +3202,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="48" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
@@ -3098,29 +3216,55 @@
       <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="B18" s="15" t="s">
+      <c r="A18" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="B18" s="95" t="s">
         <v>251</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="74" t="s">
-        <v>174</v>
-      </c>
-      <c r="B19" s="74" t="s">
-        <v>173</v>
-      </c>
+      <c r="A19" s="86" t="s">
+        <v>249</v>
+      </c>
+      <c r="B19" s="86" t="s">
+        <v>250</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" s="74" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3135,16 +3279,16 @@
   <sheetPr codeName="Лист38">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B19"/>
+    <sheetView topLeftCell="A4" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1"/>
-    <col min="2" max="2" width="59" customWidth="1"/>
+    <col min="1" max="1" width="38.85546875" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="6" max="6" width="20.140625" customWidth="1"/>
   </cols>
@@ -3186,10 +3330,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3202,10 +3346,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3218,10 +3362,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="75" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3254,7 +3398,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -3265,7 +3409,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -3281,63 +3425,79 @@
     </row>
     <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="47" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="48" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="B19" s="95" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="86" t="s">
+        <v>249</v>
+      </c>
+      <c r="B20" s="86" t="s">
         <v>250</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="C19" s="19"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="74" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" s="74" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="19"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="74" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -3347,15 +3507,15 @@
   <sheetPr codeName="Лист43">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D27"/>
+  <dimension ref="A2:D29"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B19"/>
+      <selection activeCell="A19" sqref="A19:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
     <col min="2" max="2" width="44.7109375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
@@ -3394,10 +3554,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3410,10 +3570,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3426,13 +3586,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="75" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3451,7 +3611,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" s="35"/>
     </row>
@@ -3493,70 +3653,88 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="47" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="48" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="B19" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C19" s="19"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="86" t="s">
+        <v>249</v>
+      </c>
+      <c r="B20" s="86" t="s">
         <v>250</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="C19" s="19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="74" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" s="74" t="s">
-        <v>173</v>
-      </c>
+      <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="19"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="74" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="20"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C25" s="20"/>
+      <c r="A25" s="22" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="20"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="19"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="22" t="s">
         <v>43</v>
-      </c>
-      <c r="C26" s="19"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3572,9 +3750,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C35"/>
+  <dimension ref="A2:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:B30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3587,15 +3767,15 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -3611,15 +3791,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3632,10 +3812,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3648,10 +3828,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="75" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3723,7 +3903,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -3736,10 +3916,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="86" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B21" s="86" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -3752,52 +3932,52 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="94" t="s">
         <v>75</v>
-      </c>
-      <c r="B23" s="94" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="47" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="48" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="86" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B26" s="86" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C26" s="19"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="47" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -3805,48 +3985,66 @@
         <v>1</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C28" s="19"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="B29" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C29" s="19"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="86" t="s">
+        <v>249</v>
+      </c>
+      <c r="B30" s="86" t="s">
         <v>250</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="C29" s="19"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="93" t="s">
-        <v>225</v>
-      </c>
-      <c r="B30" s="93" t="s">
-        <v>226</v>
-      </c>
       <c r="C30" s="19"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>173</v>
-      </c>
+      <c r="A31" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C31" s="19"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="30" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>233</v>
+      <c r="A32" s="93" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32" s="93" t="s">
+        <v>222</v>
+      </c>
+      <c r="C32" s="19"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3861,11 +4059,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D20"/>
+  <dimension ref="A2:D22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B18"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3879,15 +4075,15 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -3903,15 +4099,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3924,10 +4120,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3939,11 +4135,11 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="75" t="s">
-        <v>178</v>
-      </c>
-      <c r="B10" s="75" t="s">
-        <v>177</v>
+      <c r="A10" s="96" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="96" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3996,33 +4192,51 @@
       <c r="D16" s="19"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>164</v>
+      <c r="A17" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>160</v>
       </c>
       <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="B18" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="D18" s="19"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="86" t="s">
+        <v>249</v>
+      </c>
+      <c r="B19" s="86" t="s">
         <v>250</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="74" t="s">
-        <v>174</v>
-      </c>
-      <c r="B19" s="74" t="s">
-        <v>173</v>
-      </c>
+      <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -4035,9 +4249,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G21"/>
+  <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4053,15 +4269,15 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -4077,15 +4293,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4098,10 +4314,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="46" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4114,10 +4330,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="75" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
@@ -4172,47 +4388,67 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="47" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C17" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="48" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="B19" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="86" t="s">
+        <v>249</v>
+      </c>
+      <c r="B20" s="86" t="s">
         <v>250</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="F19" s="19"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="74" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" s="74" t="s">
-        <v>173</v>
-      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="74" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -4235,322 +4471,322 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C9" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="52" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="52" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="52" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B20" s="52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A21" s="52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A26" s="52" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="52" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B27" s="52" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="52" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B28" s="52" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B31" s="52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B32" s="52" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B33" s="52" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B34" s="52" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B36" s="52" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B37" s="52" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B38" s="52" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B39" s="52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B40" s="52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" s="52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B41" s="52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A42" s="52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B42" s="52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A43" s="52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B43" s="52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A44" s="52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B44" s="52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4563,15 +4799,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:B19"/>
+  <dimension ref="A2:B21"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B17"/>
+      <selection activeCell="A17" sqref="A17:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="76" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" style="76" customWidth="1"/>
     <col min="2" max="2" width="44.140625" style="76" customWidth="1"/>
     <col min="3" max="3" width="37.5703125" style="76" customWidth="1"/>
     <col min="4" max="16384" width="8.85546875" style="76"/>
@@ -4582,15 +4818,15 @@
         <v>11</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -4606,15 +4842,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -4627,10 +4863,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -4643,10 +4879,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="77" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B10" s="77" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -4698,24 +4934,40 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="B17" s="95" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="86" t="s">
+        <v>249</v>
+      </c>
+      <c r="B18" s="86" t="s">
         <v>250</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="74" t="s">
-        <v>174</v>
-      </c>
-      <c r="B18" s="74" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="74" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -4728,10 +4980,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:B24"/>
+    <sheetView topLeftCell="A13" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4743,7 +4995,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4751,15 +5003,15 @@
         <v>11</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -4775,15 +5027,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -4797,10 +5049,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -4813,11 +5065,11 @@
       <c r="C9" s="19"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="75" t="s">
-        <v>178</v>
-      </c>
-      <c r="B10" s="75" t="s">
-        <v>177</v>
+      <c r="A10" s="96" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="96" t="s">
+        <v>173</v>
       </c>
       <c r="C10" s="19"/>
     </row>
@@ -4845,7 +5097,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -4856,7 +5108,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -4867,15 +5119,15 @@
         <v>24</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="73" t="s">
-        <v>170</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>169</v>
+      <c r="A16" s="97" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -4916,10 +5168,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="72" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B21" s="71" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C21" s="30"/>
     </row>
@@ -4934,128 +5186,146 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="69" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B23" s="69" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C23" s="30"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="94" t="s">
+      <c r="A24" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="94" t="s">
-        <v>77</v>
-      </c>
       <c r="C24" s="30"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="B25" s="47" t="s">
-        <v>167</v>
+      <c r="A25" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>163</v>
       </c>
       <c r="C25" s="19"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="B26" s="48" t="s">
-        <v>164</v>
+      <c r="A26" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>160</v>
       </c>
       <c r="C26" s="30"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="86" t="s">
-        <v>241</v>
-      </c>
-      <c r="B27" s="86" t="s">
+      <c r="A27" s="69" t="s">
+        <v>237</v>
+      </c>
+      <c r="B27" s="69" t="s">
+        <v>236</v>
+      </c>
+      <c r="C27" s="30"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C28" s="30" t="s">
         <v>240</v>
-      </c>
-      <c r="C27" s="30"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="47" t="s">
-        <v>242</v>
-      </c>
-      <c r="B28" s="47" t="s">
-        <v>243</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C29" s="30"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="B30" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C30" s="30"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="86" t="s">
+        <v>249</v>
+      </c>
+      <c r="B31" s="86" t="s">
         <v>250</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="C30" s="19"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="93" t="s">
-        <v>225</v>
-      </c>
-      <c r="B31" s="93" t="s">
-        <v>226</v>
-      </c>
+      <c r="C31" s="30"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="30" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="30"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C32" s="19"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="30" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="30"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="30"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>235</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -5070,10 +5340,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C20"/>
+  <dimension ref="A2:C21"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B18"/>
+      <selection activeCell="A18" sqref="A18:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5086,15 +5356,15 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -5110,15 +5380,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -5131,10 +5401,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
@@ -5195,45 +5465,59 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="47" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="48" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="B18" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C18" s="19"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="86" t="s">
+        <v>249</v>
+      </c>
+      <c r="B19" s="86" t="s">
         <v>250</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="74" t="s">
-        <v>174</v>
-      </c>
-      <c r="B19" s="74" t="s">
-        <v>173</v>
-      </c>
+      <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>169</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.19685039370078741" footer="0"/>
@@ -5243,10 +5527,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C20"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:C22"/>
   <sheetViews>
     <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B18"/>
+      <selection activeCell="A18" sqref="A18:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5259,15 +5546,15 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -5283,15 +5570,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -5304,10 +5591,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
@@ -5368,48 +5655,67 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="47" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="48" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="B18" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C18" s="19"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="86" t="s">
+        <v>249</v>
+      </c>
+      <c r="B19" s="86" t="s">
         <v>250</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="74" t="s">
-        <v>174</v>
-      </c>
-      <c r="B19" s="74" t="s">
-        <v>173</v>
-      </c>
+      <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" s="74" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="91" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5418,10 +5724,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C21"/>
+  <dimension ref="A2:C22"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B19"/>
+      <selection activeCell="A19" sqref="A19:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5435,15 +5741,15 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
@@ -5459,15 +5765,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -5480,10 +5786,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.2">
@@ -5496,10 +5802,10 @@
     </row>
     <row r="10" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="75" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -5552,47 +5858,56 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="47" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="48" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="B19" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C19" s="19"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="86" t="s">
+        <v>249</v>
+      </c>
+      <c r="B20" s="86" t="s">
         <v>250</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="C19" s="19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="20"/>
+      <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="19"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.31496062992125984" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -5605,10 +5920,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B19"/>
+      <selection activeCell="A19" sqref="A19:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5626,16 +5941,16 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -5651,15 +5966,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -5672,10 +5987,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5688,10 +6003,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="75" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -5744,46 +6059,64 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="47" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="48" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="B19" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C19" s="19"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="86" t="s">
+        <v>249</v>
+      </c>
+      <c r="B20" s="86" t="s">
         <v>250</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="D19" s="19"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="74" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" s="74" t="s">
-        <v>173</v>
-      </c>
+      <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="D21" s="19"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="74" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -5796,10 +6129,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B23"/>
+    <sheetView topLeftCell="A13" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5810,20 +6143,20 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
@@ -5839,15 +6172,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -5858,15 +6191,15 @@
         <v>39</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="46" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -5877,15 +6210,15 @@
         <v>21</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="75" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -5896,7 +6229,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -5907,7 +6240,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -5918,7 +6251,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -5929,7 +6262,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -5942,10 +6275,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="73" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -5978,7 +6311,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -5991,10 +6324,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="86" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B22" s="86" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -6007,174 +6340,192 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="94" t="s">
         <v>75</v>
-      </c>
-      <c r="B24" s="94" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="47" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="48" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="86" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B27" s="86" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C27" s="19"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="47" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C29" s="19"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="B30" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C30" s="19"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="86" t="s">
+        <v>249</v>
+      </c>
+      <c r="B31" s="86" t="s">
         <v>250</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="C30" s="19"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="93" t="s">
-        <v>225</v>
-      </c>
-      <c r="B31" s="93" t="s">
-        <v>226</v>
-      </c>
       <c r="C31" s="19"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="90"/>
-      <c r="B33" s="90"/>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="91" t="s">
+      <c r="A32" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C32" s="19"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="93" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" s="93" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="C33" s="19"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="90"/>
+      <c r="B35" s="90"/>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="91" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="30" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="19" t="s">
-        <v>66</v>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>62</v>
-      </c>
+      <c r="A49" s="1"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>63</v>
+      <c r="A50" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>221</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/AccBase_Specification_KZ-RU.xlsx
+++ b/AccBase_Specification_KZ-RU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -1851,9 +1851,7 @@
   </sheetPr>
   <dimension ref="A2:I22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B19"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3752,9 +3750,7 @@
   </sheetPr>
   <dimension ref="A2:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:B30"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5532,9 +5528,7 @@
   </sheetPr>
   <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B19"/>
-    </sheetView>
+    <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/AccBase_Specification_KZ-RU.xlsx
+++ b/AccBase_Specification_KZ-RU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="9720" windowHeight="7260" tabRatio="772" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="31" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="252">
   <si>
     <t>Договор</t>
   </si>
@@ -1061,7 +1061,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1128,7 +1128,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1171,9 +1170,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1197,16 +1193,8 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1235,7 +1223,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1575,7 +1562,7 @@
       <c r="A4" s="23"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="86" t="s">
         <v>219</v>
       </c>
     </row>
@@ -1602,31 +1589,29 @@
   </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:B21"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" style="63" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" style="61" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
     <col min="4" max="14" width="6.7109375" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="64" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="64" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="52" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -1634,7 +1619,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="53" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="14" t="s">
@@ -1642,7 +1627,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="54" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1650,7 +1635,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="55" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -1666,7 +1651,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="56" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -1674,7 +1659,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="56" t="s">
         <v>68</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -1682,23 +1667,23 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="44" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="89" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="56" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -1706,23 +1691,23 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="44" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="58" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -1730,8 +1715,8 @@
       </c>
       <c r="C15" s="29"/>
     </row>
-    <row r="16" spans="1:3" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="61" t="s">
+    <row r="16" spans="1:3" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="59" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="34" t="s">
@@ -1739,8 +1724,8 @@
       </c>
       <c r="C16" s="29"/>
     </row>
-    <row r="17" spans="1:8" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="61" t="s">
+    <row r="17" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="59" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="34" t="s">
@@ -1753,11 +1738,11 @@
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
     </row>
-    <row r="18" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="47" t="s">
+    <row r="18" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="16" t="s">
         <v>163</v>
       </c>
       <c r="C18" s="19" t="s">
@@ -1769,11 +1754,11 @@
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
     </row>
-    <row r="19" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="48" t="s">
+    <row r="19" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="18" t="s">
         <v>160</v>
       </c>
       <c r="C19" s="19"/>
@@ -1783,11 +1768,11 @@
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
     </row>
-    <row r="20" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="95" t="s">
+    <row r="20" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="88" t="s">
         <v>248</v>
       </c>
-      <c r="B20" s="95" t="s">
+      <c r="B20" s="88" t="s">
         <v>251</v>
       </c>
       <c r="C20" s="19"/>
@@ -1797,11 +1782,11 @@
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
     </row>
-    <row r="21" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="86" t="s">
+    <row r="21" spans="1:8" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="80" t="s">
         <v>249</v>
       </c>
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="80" t="s">
         <v>250</v>
       </c>
       <c r="C21" s="19"/>
@@ -1821,19 +1806,19 @@
       <c r="C22" s="29"/>
     </row>
     <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="24" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="62"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="65"/>
+      <c r="A25" s="63"/>
       <c r="B25" s="23"/>
     </row>
   </sheetData>
@@ -1855,8 +1840,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
@@ -1916,10 +1901,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="89" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1981,10 +1966,10 @@
       <c r="C15" s="19"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="16" t="s">
         <v>163</v>
       </c>
       <c r="C16" s="19" t="s">
@@ -1992,10 +1977,10 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="18" t="s">
         <v>160</v>
       </c>
       <c r="C17" s="19" t="s">
@@ -2003,19 +1988,19 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="95" t="s">
+      <c r="A18" s="88" t="s">
         <v>248</v>
       </c>
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="88" t="s">
         <v>251</v>
       </c>
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="86" t="s">
+      <c r="A19" s="80" t="s">
         <v>249</v>
       </c>
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="80" t="s">
         <v>250</v>
       </c>
       <c r="C19" s="19"/>
@@ -2036,10 +2021,10 @@
       <c r="I20" s="19"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="24" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2062,13 +2047,12 @@
   </sheetPr>
   <dimension ref="A2:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B20"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="37.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -2128,18 +2112,18 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="62" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="89" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2194,10 +2178,10 @@
       <c r="C16" s="19"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="16" t="s">
         <v>163</v>
       </c>
       <c r="C17" s="19" t="s">
@@ -2205,10 +2189,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="18" t="s">
         <v>160</v>
       </c>
       <c r="C18" s="19" t="s">
@@ -2216,19 +2200,19 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="88" t="s">
         <v>248</v>
       </c>
-      <c r="B19" s="95" t="s">
+      <c r="B19" s="88" t="s">
         <v>251</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="80" t="s">
         <v>249</v>
       </c>
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="80" t="s">
         <v>250</v>
       </c>
       <c r="C20" s="19"/>
@@ -2242,10 +2226,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="24" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2266,14 +2250,12 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:B21"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1"/>
-    <col min="2" max="2" width="44.85546875" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -2351,10 +2333,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="89" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2367,10 +2349,10 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="49" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2407,10 +2389,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="16" t="s">
         <v>163</v>
       </c>
       <c r="C18" s="19" t="s">
@@ -2418,10 +2400,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="18" t="s">
         <v>160</v>
       </c>
       <c r="C19" s="19" t="s">
@@ -2429,19 +2411,19 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="95" t="s">
+      <c r="A20" s="88" t="s">
         <v>248</v>
       </c>
-      <c r="B20" s="95" t="s">
+      <c r="B20" s="88" t="s">
         <v>251</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="80" t="s">
         <v>249</v>
       </c>
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="80" t="s">
         <v>250</v>
       </c>
       <c r="C21" s="19"/>
@@ -2455,10 +2437,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="24" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2471,68 +2453,68 @@
       <c r="B25" s="23"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="80" t="s">
+      <c r="A26" s="74" t="s">
         <v>214</v>
       </c>
       <c r="B26" s="23"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="81" t="s">
         <v>213</v>
       </c>
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="81" t="s">
         <v>175</v>
       </c>
-      <c r="C27" s="88" t="s">
+      <c r="C27" s="82" t="s">
         <v>212</v>
       </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="88">
+      <c r="A28" s="82">
         <v>3</v>
       </c>
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="C28" s="88" t="s">
+      <c r="C28" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="23"/>
       <c r="B29" s="23"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="80" t="s">
+      <c r="A30" s="74" t="s">
         <v>215</v>
       </c>
       <c r="B30" s="23"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="84" t="s">
+      <c r="A31" s="78" t="s">
         <v>213</v>
       </c>
-      <c r="B31" s="87" t="s">
+      <c r="B31" s="81" t="s">
         <v>175</v>
       </c>
-      <c r="C31" s="88" t="s">
+      <c r="C31" s="82" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="85" t="s">
+      <c r="A32" s="79" t="s">
         <v>207</v>
       </c>
-      <c r="B32" s="88" t="s">
+      <c r="B32" s="82" t="s">
         <v>182</v>
       </c>
-      <c r="C32" s="88" t="s">
+      <c r="C32" s="82" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2550,14 +2532,12 @@
   </sheetPr>
   <dimension ref="A2:I28"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B20"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2629,10 +2609,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="89" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2655,7 +2635,7 @@
       <c r="B12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="40"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="19"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2705,10 +2685,10 @@
       <c r="I16" s="19"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="16" t="s">
         <v>163</v>
       </c>
       <c r="C17" s="19" t="s">
@@ -2716,10 +2696,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="18" t="s">
         <v>160</v>
       </c>
       <c r="C18" s="19" t="s">
@@ -2727,19 +2707,19 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="88" t="s">
         <v>248</v>
       </c>
-      <c r="B19" s="95" t="s">
+      <c r="B19" s="88" t="s">
         <v>251</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="80" t="s">
         <v>249</v>
       </c>
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="80" t="s">
         <v>250</v>
       </c>
       <c r="C20" s="19"/>
@@ -2754,10 +2734,10 @@
       <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="24" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2794,14 +2774,12 @@
   </sheetPr>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B20"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -2872,10 +2850,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="89" t="s">
         <v>173</v>
       </c>
       <c r="C10" s="19"/>
@@ -2900,7 +2878,7 @@
       <c r="B12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="36"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
@@ -2935,34 +2913,34 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="16" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="18" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="88" t="s">
         <v>248</v>
       </c>
-      <c r="B19" s="95" t="s">
+      <c r="B19" s="88" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="80" t="s">
         <v>249</v>
       </c>
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="80" t="s">
         <v>250</v>
       </c>
     </row>
@@ -2975,10 +2953,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="24" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2991,54 +2969,54 @@
       <c r="B24" s="23"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="70" t="s">
+      <c r="A25" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="B25" s="80" t="s">
+      <c r="B25" s="74" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="82" t="s">
+      <c r="A26" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="B26" s="83" t="s">
+      <c r="B26" s="77" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="81" t="s">
+      <c r="A27" s="75" t="s">
         <v>208</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="45" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="70"/>
-      <c r="B28" s="80"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="74"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="70" t="s">
+      <c r="A29" s="68" t="s">
         <v>179</v>
       </c>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="74" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="B30" s="83" t="s">
+      <c r="B30" s="77" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="81" t="s">
+      <c r="A31" s="75" t="s">
         <v>209</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="45" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3056,9 +3034,7 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B19"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3128,7 +3104,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="48" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -3136,10 +3112,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="89" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3152,26 +3128,26 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="49" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="16" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3184,10 +3160,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="16" t="s">
         <v>163</v>
       </c>
       <c r="C16" s="19" t="s">
@@ -3199,10 +3175,10 @@
       <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="18" t="s">
         <v>160</v>
       </c>
       <c r="C17" s="19" t="s">
@@ -3214,10 +3190,10 @@
       <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="95" t="s">
+      <c r="A18" s="88" t="s">
         <v>248</v>
       </c>
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="88" t="s">
         <v>251</v>
       </c>
       <c r="C18" s="19"/>
@@ -3227,10 +3203,10 @@
       <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="86" t="s">
+      <c r="A19" s="80" t="s">
         <v>249</v>
       </c>
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="80" t="s">
         <v>250</v>
       </c>
       <c r="C19" s="19"/>
@@ -3253,10 +3229,10 @@
       <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="24" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3279,14 +3255,12 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B20"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" customWidth="1"/>
-    <col min="2" max="2" width="46.5703125" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="6" max="6" width="20.140625" customWidth="1"/>
   </cols>
@@ -3351,7 +3325,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="48" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -3359,10 +3333,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="89" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3389,10 +3363,10 @@
       <c r="E12" s="19"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="19" t="s">
@@ -3400,10 +3374,10 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -3411,10 +3385,10 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="37" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="33"/>
@@ -3422,10 +3396,10 @@
       <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="16" t="s">
         <v>163</v>
       </c>
       <c r="C16" s="33" t="s">
@@ -3435,10 +3409,10 @@
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="18" t="s">
         <v>160</v>
       </c>
       <c r="C17" s="33" t="s">
@@ -3448,26 +3422,26 @@
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="17" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="88" t="s">
         <v>248</v>
       </c>
-      <c r="B19" s="95" t="s">
+      <c r="B19" s="88" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="80" t="s">
         <v>249</v>
       </c>
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="80" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3481,10 +3455,10 @@
       <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="24" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3507,14 +3481,12 @@
   </sheetPr>
   <dimension ref="A2:D29"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B20"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3583,10 +3555,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="89" t="s">
         <v>173</v>
       </c>
       <c r="C10" s="19" t="s">
@@ -3602,13 +3574,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="38" t="s">
         <v>57</v>
       </c>
       <c r="D12" s="35"/>
@@ -3650,10 +3622,10 @@
       <c r="C16" s="19"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="16" t="s">
         <v>163</v>
       </c>
       <c r="C17" s="19" t="s">
@@ -3661,10 +3633,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="18" t="s">
         <v>160</v>
       </c>
       <c r="C18" s="19" t="s">
@@ -3672,19 +3644,19 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="88" t="s">
         <v>248</v>
       </c>
-      <c r="B19" s="95" t="s">
+      <c r="B19" s="88" t="s">
         <v>251</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="80" t="s">
         <v>249</v>
       </c>
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="80" t="s">
         <v>250</v>
       </c>
       <c r="C20" s="19"/>
@@ -3699,10 +3671,10 @@
       <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="24" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3754,8 +3726,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
@@ -3823,10 +3795,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="89" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3879,66 +3851,66 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="88" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="46" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="46" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="95" t="s">
+      <c r="A20" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="95" t="s">
+      <c r="B20" s="88" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="80" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="95" t="s">
+      <c r="B22" s="88" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="94" t="s">
+      <c r="A23" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="94" t="s">
+      <c r="B23" s="87" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="46" t="s">
         <v>163</v>
       </c>
       <c r="C24" s="19" t="s">
@@ -3946,10 +3918,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="47" t="s">
         <v>160</v>
       </c>
       <c r="C25" s="19" t="s">
@@ -3957,19 +3929,19 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="86" t="s">
+      <c r="A26" s="80" t="s">
         <v>237</v>
       </c>
-      <c r="B26" s="86" t="s">
+      <c r="B26" s="80" t="s">
         <v>236</v>
       </c>
       <c r="C26" s="19"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="46" t="s">
         <v>239</v>
       </c>
       <c r="C27" s="30" t="s">
@@ -3986,19 +3958,19 @@
       <c r="C28" s="19"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="88" t="s">
         <v>248</v>
       </c>
-      <c r="B29" s="95" t="s">
+      <c r="B29" s="88" t="s">
         <v>251</v>
       </c>
       <c r="C29" s="19"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="86" t="s">
+      <c r="A30" s="80" t="s">
         <v>249</v>
       </c>
-      <c r="B30" s="86" t="s">
+      <c r="B30" s="80" t="s">
         <v>250</v>
       </c>
       <c r="C30" s="19"/>
@@ -4013,10 +3985,10 @@
       <c r="C31" s="19"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="93" t="s">
+      <c r="A32" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="B32" s="93" t="s">
+      <c r="B32" s="45" t="s">
         <v>222</v>
       </c>
       <c r="C32" s="19"/>
@@ -4057,12 +4029,12 @@
   </sheetPr>
   <dimension ref="A2:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
     <col min="3" max="3" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4123,18 +4095,18 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="44" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="89" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4197,19 +4169,19 @@
       <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="95" t="s">
+      <c r="A18" s="88" t="s">
         <v>248</v>
       </c>
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="88" t="s">
         <v>251</v>
       </c>
       <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="86" t="s">
+      <c r="A19" s="80" t="s">
         <v>249</v>
       </c>
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="80" t="s">
         <v>250</v>
       </c>
       <c r="D19" s="19"/>
@@ -4247,14 +4219,12 @@
   </sheetPr>
   <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B20"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
     <col min="3" max="3" width="26.140625" customWidth="1"/>
     <col min="4" max="4" width="41.5703125" customWidth="1"/>
     <col min="5" max="5" width="35.42578125" customWidth="1"/>
@@ -4309,10 +4279,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="45" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4325,10 +4295,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="89" t="s">
         <v>173</v>
       </c>
       <c r="F10" s="19"/>
@@ -4383,10 +4353,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="16" t="s">
         <v>163</v>
       </c>
       <c r="C17" t="s">
@@ -4394,10 +4364,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="18" t="s">
         <v>160</v>
       </c>
       <c r="C18" s="19" t="s">
@@ -4406,20 +4376,20 @@
       <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="88" t="s">
         <v>248</v>
       </c>
-      <c r="B19" s="95" t="s">
+      <c r="B19" s="88" t="s">
         <v>251</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="80" t="s">
         <v>249</v>
       </c>
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="80" t="s">
         <v>250</v>
       </c>
       <c r="C20" s="19"/>
@@ -4435,10 +4405,10 @@
       <c r="F21" s="19"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="24" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4538,250 +4508,250 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="51" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="51" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="51" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="51" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="51" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="51" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="51" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="51" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="51" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="51" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="51" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="51" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="51" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="51" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="51" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="51" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="51" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="51" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="52" t="s">
+      <c r="B32" s="51" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="51" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="51" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="52" t="s">
+      <c r="B35" s="51" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="51" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="52" t="s">
+      <c r="A37" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="51" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="51" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="51" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="52" t="s">
+      <c r="A40" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="51" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="52" t="s">
+      <c r="A41" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="51" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="52" t="s">
+      <c r="A42" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="51" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="52" t="s">
+      <c r="A43" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="51" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="52" t="s">
+      <c r="A44" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="52" t="s">
+      <c r="B44" s="51" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4797,16 +4767,14 @@
   </sheetPr>
   <dimension ref="A2:B21"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B18"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.140625" style="76" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" style="76" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" style="76" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="76"/>
+    <col min="1" max="1" width="33.140625" style="71" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="71" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" style="71" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="71"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
@@ -4874,10 +4842,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="26" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4890,18 +4858,18 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="43" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="72" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4914,10 +4882,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="73" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4930,18 +4898,18 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="88" t="s">
         <v>248</v>
       </c>
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="88" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="86" t="s">
+      <c r="A18" s="80" t="s">
         <v>249</v>
       </c>
-      <c r="B18" s="86" t="s">
+      <c r="B18" s="80" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4954,10 +4922,10 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="24" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4976,11 +4944,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:B34"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5061,10 +5027,10 @@
       <c r="C9" s="19"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="89" t="s">
         <v>173</v>
       </c>
       <c r="C10" s="19"/>
@@ -5078,10 +5044,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="49" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5097,10 +5063,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="43" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -5119,7 +5085,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="97" t="s">
+      <c r="A16" s="90" t="s">
         <v>166</v>
       </c>
       <c r="B16" s="16" t="s">
@@ -5136,10 +5102,10 @@
       <c r="C17" s="19"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="66" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="19"/>
@@ -5163,37 +5129,37 @@
       <c r="C20" s="30"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="69" t="s">
         <v>130</v>
       </c>
       <c r="C21" s="30"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="65" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="30"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="67" t="s">
         <v>135</v>
       </c>
       <c r="C23" s="30"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="71" t="s">
+      <c r="A24" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="69" t="s">
         <v>75</v>
       </c>
       <c r="C24" s="30"/>
@@ -5217,10 +5183,10 @@
       <c r="C26" s="30"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="67" t="s">
         <v>237</v>
       </c>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="67" t="s">
         <v>236</v>
       </c>
       <c r="C27" s="30"/>
@@ -5237,7 +5203,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="41" t="s">
         <v>59</v>
       </c>
       <c r="B29" s="24" t="s">
@@ -5246,19 +5212,19 @@
       <c r="C29" s="30"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="95" t="s">
+      <c r="A30" s="88" t="s">
         <v>248</v>
       </c>
-      <c r="B30" s="95" t="s">
+      <c r="B30" s="88" t="s">
         <v>251</v>
       </c>
       <c r="C30" s="30"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="86" t="s">
+      <c r="A31" s="80" t="s">
         <v>249</v>
       </c>
-      <c r="B31" s="86" t="s">
+      <c r="B31" s="80" t="s">
         <v>250</v>
       </c>
       <c r="C31" s="30"/>
@@ -5273,10 +5239,10 @@
       <c r="C32" s="19"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="45" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5294,33 +5260,27 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="30"/>
+      <c r="A37" s="30" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="30" t="s">
-        <v>147</v>
+      <c r="A38" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="30"/>
+      <c r="A39" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="A40" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>231</v>
       </c>
     </row>
@@ -5336,15 +5296,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C21"/>
+  <dimension ref="A2:C20"/>
   <sheetViews>
     <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B19"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="34.85546875" customWidth="1"/>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -5404,10 +5365,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="62" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5420,10 +5381,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="44" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5460,10 +5421,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="16" t="s">
         <v>163</v>
       </c>
       <c r="C16" s="19" t="s">
@@ -5471,10 +5432,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="18" t="s">
         <v>160</v>
       </c>
       <c r="C17" s="19" t="s">
@@ -5482,19 +5443,19 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="95" t="s">
+      <c r="A18" s="88" t="s">
         <v>248</v>
       </c>
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="88" t="s">
         <v>251</v>
       </c>
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="86" t="s">
+      <c r="A19" s="80" t="s">
         <v>249</v>
       </c>
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="80" t="s">
         <v>250</v>
       </c>
       <c r="C19" s="19"/>
@@ -5505,14 +5466,6 @@
       </c>
       <c r="B20" s="15" t="s">
         <v>247</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -5526,9 +5479,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C22"/>
+  <dimension ref="A2:C21"/>
   <sheetViews>
-    <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0"/>
+    <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5592,10 +5547,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="62" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5608,10 +5563,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="44" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5648,10 +5603,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="16" t="s">
         <v>163</v>
       </c>
       <c r="C16" s="19" t="s">
@@ -5659,10 +5614,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="47" t="s">
         <v>160</v>
       </c>
       <c r="C17" s="19" t="s">
@@ -5670,19 +5625,19 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="95" t="s">
+      <c r="A18" s="88" t="s">
         <v>248</v>
       </c>
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="88" t="s">
         <v>251</v>
       </c>
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="86" t="s">
+      <c r="A19" s="80" t="s">
         <v>249</v>
       </c>
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="80" t="s">
         <v>250</v>
       </c>
       <c r="C19" s="19"/>
@@ -5696,16 +5651,8 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="B21" s="74" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -5718,19 +5665,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C22"/>
+  <dimension ref="A2:C21"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B20"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -5738,7 +5683,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>168</v>
       </c>
@@ -5746,7 +5691,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -5754,7 +5699,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
@@ -5762,7 +5707,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>242</v>
       </c>
@@ -5770,7 +5715,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>40</v>
       </c>
@@ -5778,7 +5723,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>68</v>
       </c>
@@ -5786,122 +5731,114 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="64" t="s">
+    <row r="9" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="62" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="75" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="75" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B10" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="45" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B11" s="44" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B12" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B13" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B14" s="34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>2</v>
+        <v>161</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>27</v>
+        <v>163</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="B17" s="47" t="s">
-        <v>163</v>
+      <c r="A17" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>160</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>204</v>
-      </c>
+      <c r="A18" s="88" t="s">
+        <v>248</v>
+      </c>
+      <c r="B18" s="88" t="s">
+        <v>251</v>
+      </c>
+      <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="95" t="s">
-        <v>248</v>
-      </c>
-      <c r="B19" s="95" t="s">
-        <v>251</v>
+      <c r="A19" s="80" t="s">
+        <v>249</v>
+      </c>
+      <c r="B19" s="80" t="s">
+        <v>250</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="86" t="s">
-        <v>249</v>
-      </c>
-      <c r="B20" s="86" t="s">
-        <v>250</v>
+      <c r="A20" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>247</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="C21" s="19"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.31496062992125984" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
@@ -5916,13 +5853,11 @@
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B20"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
     <col min="2" max="2" width="31.140625" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" customWidth="1"/>
   </cols>
@@ -5988,7 +5923,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="48" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="15" t="s">
@@ -5996,10 +5931,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="89" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6052,10 +5987,10 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="16" t="s">
         <v>163</v>
       </c>
       <c r="C17" s="19" t="s">
@@ -6063,10 +5998,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="18" t="s">
         <v>160</v>
       </c>
       <c r="C18" s="19" t="s">
@@ -6074,19 +6009,19 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="88" t="s">
         <v>248</v>
       </c>
-      <c r="B19" s="95" t="s">
+      <c r="B19" s="88" t="s">
         <v>251</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="80" t="s">
         <v>249</v>
       </c>
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="80" t="s">
         <v>250</v>
       </c>
       <c r="C20" s="19"/>
@@ -6101,10 +6036,10 @@
       <c r="D21" s="19"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="24" t="s">
         <v>169</v>
       </c>
     </row>
@@ -6125,14 +6060,12 @@
   </sheetPr>
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:B31"/>
-    </sheetView>
+    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -6189,10 +6122,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="45" t="s">
         <v>67</v>
       </c>
     </row>
@@ -6208,10 +6141,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="89" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6233,7 +6166,7 @@
       <c r="B12" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="39" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6268,10 +6201,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="90" t="s">
         <v>166</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="16" t="s">
         <v>165</v>
       </c>
     </row>
@@ -6317,10 +6250,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="86" t="s">
+      <c r="A22" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="67" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6333,18 +6266,18 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="94" t="s">
+      <c r="A24" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="94" t="s">
+      <c r="B24" s="69" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="16" t="s">
         <v>163</v>
       </c>
       <c r="C25" s="19" t="s">
@@ -6352,10 +6285,10 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="18" t="s">
         <v>160</v>
       </c>
       <c r="C26" s="19" t="s">
@@ -6363,19 +6296,19 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="86" t="s">
+      <c r="A27" s="67" t="s">
         <v>237</v>
       </c>
-      <c r="B27" s="86" t="s">
+      <c r="B27" s="67" t="s">
         <v>236</v>
       </c>
       <c r="C27" s="19"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="16" t="s">
         <v>239</v>
       </c>
       <c r="C28" s="30" t="s">
@@ -6383,7 +6316,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="41" t="s">
         <v>59</v>
       </c>
       <c r="B29" s="15" t="s">
@@ -6392,19 +6325,19 @@
       <c r="C29" s="19"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="95" t="s">
+      <c r="A30" s="88" t="s">
         <v>248</v>
       </c>
-      <c r="B30" s="95" t="s">
+      <c r="B30" s="88" t="s">
         <v>251</v>
       </c>
       <c r="C30" s="19"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="86" t="s">
+      <c r="A31" s="80" t="s">
         <v>249</v>
       </c>
-      <c r="B31" s="86" t="s">
+      <c r="B31" s="80" t="s">
         <v>250</v>
       </c>
       <c r="C31" s="19"/>
@@ -6419,10 +6352,10 @@
       <c r="C32" s="19"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="93" t="s">
+      <c r="A33" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="B33" s="93" t="s">
+      <c r="B33" s="45" t="s">
         <v>222</v>
       </c>
       <c r="C33" s="19"/>
@@ -6436,11 +6369,11 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="90"/>
-      <c r="B35" s="90"/>
+      <c r="A35" s="84"/>
+      <c r="B35" s="84"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="91" t="s">
+      <c r="A36" s="85" t="s">
         <v>218</v>
       </c>
     </row>
